--- a/sgtpy/database/saftgamma_database.xlsx
+++ b/sgtpy/database/saftgamma_database.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="91">
   <si>
     <t>vk*</t>
   </si>
@@ -215,7 +215,7 @@
     <t>NO3-</t>
   </si>
   <si>
-    <t>HCO-</t>
+    <t>HCO3-</t>
   </si>
   <si>
     <t>aCCOaC</t>
@@ -246,9 +246,6 @@
   </si>
   <si>
     <t>lr_kl</t>
-  </si>
-  <si>
-    <t>HCO3-</t>
   </si>
   <si>
     <t>CR</t>
@@ -3291,7 +3288,7 @@
         <v>350.77</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3305,7 +3302,7 @@
         <v>387.48</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3319,7 +3316,7 @@
         <v>339.91</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3333,7 +3330,7 @@
         <v>305.81</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3347,7 +3344,7 @@
         <v>396.91</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3361,7 +3358,7 @@
         <v>455.85</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3375,7 +3372,7 @@
         <v>333.48</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3389,7 +3386,7 @@
         <v>252.41</v>
       </c>
       <c r="D9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3403,7 +3400,7 @@
         <v>355.95</v>
       </c>
       <c r="D10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3417,7 +3414,7 @@
         <v>255.99</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3445,7 +3442,7 @@
         <v>402.75</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3501,7 +3498,7 @@
         <v>205.7</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3515,7 +3512,7 @@
         <v>314.67</v>
       </c>
       <c r="D18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3529,7 +3526,7 @@
         <v>333.2</v>
       </c>
       <c r="D19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3543,7 +3540,7 @@
         <v>479.38</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3557,7 +3554,7 @@
         <v>244.15</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -3571,7 +3568,7 @@
         <v>530.87</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -3585,7 +3582,7 @@
         <v>462.18</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3599,7 +3596,7 @@
         <v>583.72</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -3613,7 +3610,7 @@
         <v>710</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3627,7 +3624,7 @@
         <v>281.4</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -3641,7 +3638,7 @@
         <v>358.58</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3655,7 +3652,7 @@
         <v>413.25</v>
       </c>
       <c r="D28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3669,7 +3666,7 @@
         <v>690.17</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3683,7 +3680,7 @@
         <v>406.97</v>
       </c>
       <c r="D30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -3697,7 +3694,7 @@
         <v>761.79</v>
       </c>
       <c r="D31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3711,7 +3708,7 @@
         <v>462.18</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3725,7 +3722,7 @@
         <v>255.99</v>
       </c>
       <c r="D33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3739,7 +3736,7 @@
         <v>370.75</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -3753,7 +3750,7 @@
         <v>647.64</v>
       </c>
       <c r="D35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3767,7 +3764,7 @@
         <v>344.57</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3781,7 +3778,7 @@
         <v>301.77</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3795,7 +3792,7 @@
         <v>261.63</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3809,7 +3806,7 @@
         <v>506.21</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3823,7 +3820,7 @@
         <v>300.07</v>
       </c>
       <c r="D40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3837,7 +3834,7 @@
         <v>415.64</v>
       </c>
       <c r="D41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3851,7 +3848,7 @@
         <v>454.16</v>
       </c>
       <c r="D42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -3865,7 +3862,7 @@
         <v>345.8</v>
       </c>
       <c r="D43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -3879,7 +3876,7 @@
         <v>386.8</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3893,7 +3890,7 @@
         <v>459.4</v>
       </c>
       <c r="D45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -3907,7 +3904,7 @@
         <v>469.67</v>
       </c>
       <c r="D46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3921,7 +3918,7 @@
         <v>413.74</v>
       </c>
       <c r="D47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3949,7 +3946,7 @@
         <v>498.86</v>
       </c>
       <c r="D49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -4005,7 +4002,7 @@
         <v>276.45</v>
       </c>
       <c r="D53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -4019,7 +4016,7 @@
         <v>396.27</v>
       </c>
       <c r="D54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -4033,7 +4030,7 @@
         <v>423.17</v>
       </c>
       <c r="D55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -4047,7 +4044,7 @@
         <v>517.64</v>
       </c>
       <c r="D56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -4061,7 +4058,7 @@
         <v>348.39</v>
       </c>
       <c r="D57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -4075,7 +4072,7 @@
         <v>394.58</v>
       </c>
       <c r="D58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -4089,7 +4086,7 @@
         <v>348.3</v>
       </c>
       <c r="D59" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -4103,7 +4100,7 @@
         <v>429.49</v>
       </c>
       <c r="D60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -4117,7 +4114,7 @@
         <v>508.54</v>
       </c>
       <c r="D61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -4131,7 +4128,7 @@
         <v>286.58</v>
       </c>
       <c r="D62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -4145,7 +4142,7 @@
         <v>569.1799999999999</v>
       </c>
       <c r="D63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -4159,7 +4156,7 @@
         <v>484.02</v>
       </c>
       <c r="D64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4173,7 +4170,7 @@
         <v>522.5700000000001</v>
       </c>
       <c r="D65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -4187,7 +4184,7 @@
         <v>309.95</v>
       </c>
       <c r="D66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4201,7 +4198,7 @@
         <v>893.5</v>
       </c>
       <c r="D67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -4215,7 +4212,7 @@
         <v>348.3</v>
       </c>
       <c r="D68" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -4229,7 +4226,7 @@
         <v>413.74</v>
       </c>
       <c r="D69" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -4243,7 +4240,7 @@
         <v>323.72</v>
       </c>
       <c r="D70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -4257,7 +4254,7 @@
         <v>347.75</v>
       </c>
       <c r="D71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -4271,7 +4268,7 @@
         <v>431.49</v>
       </c>
       <c r="D72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -4285,7 +4282,7 @@
         <v>408.05</v>
       </c>
       <c r="D73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -4299,7 +4296,7 @@
         <v>353.78</v>
       </c>
       <c r="D74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -4313,7 +4310,7 @@
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -4327,7 +4324,7 @@
         <v>441.43</v>
       </c>
       <c r="D76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -4341,7 +4338,7 @@
         <v>65.41</v>
       </c>
       <c r="D77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -4355,7 +4352,7 @@
         <v>67.51000000000001</v>
       </c>
       <c r="D78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -4369,7 +4366,7 @@
         <v>426.76</v>
       </c>
       <c r="D79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -4383,7 +4380,7 @@
         <v>502.99</v>
       </c>
       <c r="D80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -4397,7 +4394,7 @@
         <v>570.45</v>
       </c>
       <c r="D81" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -4411,7 +4408,7 @@
         <v>504.99</v>
       </c>
       <c r="D82" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -4425,7 +4422,7 @@
         <v>637.29</v>
       </c>
       <c r="D83" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -4439,7 +4436,7 @@
         <v>353.65</v>
       </c>
       <c r="D84" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -4453,7 +4450,7 @@
         <v>275.75</v>
       </c>
       <c r="D85" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -4467,7 +4464,7 @@
         <v>198.08</v>
       </c>
       <c r="D86" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -4481,7 +4478,7 @@
         <v>329.22</v>
       </c>
       <c r="D87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -4495,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -4509,7 +4506,7 @@
         <v>378.72</v>
       </c>
       <c r="D89" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -4523,7 +4520,7 @@
         <v>504.99</v>
       </c>
       <c r="D90" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -4537,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -4551,7 +4548,7 @@
         <v>878.88</v>
       </c>
       <c r="D92" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -4565,7 +4562,7 @@
         <v>321.91</v>
       </c>
       <c r="D93" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -4579,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -4593,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -4607,7 +4604,7 @@
         <v>420.82</v>
       </c>
       <c r="D96" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -4621,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="D97" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -4635,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="D98" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -4649,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="D99" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4663,7 +4660,7 @@
         <v>416.69</v>
       </c>
       <c r="D100" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -4677,7 +4674,7 @@
         <v>429.16</v>
       </c>
       <c r="D101" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4705,7 +4702,7 @@
         <v>333.11</v>
       </c>
       <c r="D103" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4733,7 +4730,7 @@
         <v>386.05</v>
       </c>
       <c r="D105" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -4747,7 +4744,7 @@
         <v>512.16</v>
       </c>
       <c r="D106" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4761,7 +4758,7 @@
         <v>471.23</v>
       </c>
       <c r="D107" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4775,7 +4772,7 @@
         <v>448.75</v>
       </c>
       <c r="D108" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -4786,10 +4783,10 @@
         <v>45</v>
       </c>
       <c r="C109" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D109" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4817,7 +4814,7 @@
         <v>340.7</v>
       </c>
       <c r="D111" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -4831,7 +4828,7 @@
         <v>549.72</v>
       </c>
       <c r="D112" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4859,7 +4856,7 @@
         <v>462.04</v>
       </c>
       <c r="D114" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -4873,7 +4870,7 @@
         <v>473.66</v>
       </c>
       <c r="D115" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -4887,7 +4884,7 @@
         <v>394.83</v>
       </c>
       <c r="D116" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4901,7 +4898,7 @@
         <v>329.03</v>
       </c>
       <c r="D117" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -4915,7 +4912,7 @@
         <v>434.37</v>
       </c>
       <c r="D118" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -4929,7 +4926,7 @@
         <v>357.91</v>
       </c>
       <c r="D119" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4940,10 +4937,10 @@
         <v>45</v>
       </c>
       <c r="C120" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D120" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -4957,7 +4954,7 @@
         <v>473.66</v>
       </c>
       <c r="D121" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4971,7 +4968,7 @@
         <v>168.69</v>
       </c>
       <c r="D122" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4999,7 +4996,7 @@
         <v>599.28</v>
       </c>
       <c r="D124" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -5013,7 +5010,7 @@
         <v>459.22</v>
       </c>
       <c r="D125" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -5027,7 +5024,7 @@
         <v>314.03</v>
       </c>
       <c r="D126" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -5041,7 +5038,7 @@
         <v>436.14</v>
       </c>
       <c r="D127" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -5055,7 +5052,7 @@
         <v>138.39</v>
       </c>
       <c r="D128" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -5069,7 +5066,7 @@
         <v>599.28</v>
       </c>
       <c r="D129" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -5083,7 +5080,7 @@
         <v>275.75</v>
       </c>
       <c r="D130" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -5097,7 +5094,7 @@
         <v>288.2</v>
       </c>
       <c r="D131" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5125,7 +5122,7 @@
         <v>375.51</v>
       </c>
       <c r="D133" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -5139,7 +5136,7 @@
         <v>449.83</v>
       </c>
       <c r="D134" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -5153,7 +5150,7 @@
         <v>203.76</v>
       </c>
       <c r="D135" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -5167,7 +5164,7 @@
         <v>398.35</v>
       </c>
       <c r="D136" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5181,7 +5178,7 @@
         <v>453.13</v>
       </c>
       <c r="D137" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5195,7 +5192,7 @@
         <v>437.75</v>
       </c>
       <c r="D138" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -5209,7 +5206,7 @@
         <v>818.79</v>
       </c>
       <c r="D139" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -5237,7 +5234,7 @@
         <v>625.17</v>
       </c>
       <c r="D141" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -5251,7 +5248,7 @@
         <v>414.91</v>
       </c>
       <c r="D142" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -5265,7 +5262,7 @@
         <v>540.83</v>
       </c>
       <c r="D143" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -5279,7 +5276,7 @@
         <v>1195.3</v>
       </c>
       <c r="D144" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -5293,7 +5290,7 @@
         <v>453.13</v>
       </c>
       <c r="D145" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -5307,7 +5304,7 @@
         <v>352.19</v>
       </c>
       <c r="D146" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -5321,7 +5318,7 @@
         <v>498.6</v>
       </c>
       <c r="D147" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5349,7 +5346,7 @@
         <v>269.68</v>
       </c>
       <c r="D149" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5363,7 +5360,7 @@
         <v>376.57</v>
       </c>
       <c r="D150" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -5377,7 +5374,7 @@
         <v>554.5</v>
       </c>
       <c r="D151" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -5391,7 +5388,7 @@
         <v>332.15</v>
       </c>
       <c r="D152" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -5405,7 +5402,7 @@
         <v>549.4299999999999</v>
       </c>
       <c r="D153" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -5419,7 +5416,7 @@
         <v>650.24</v>
       </c>
       <c r="D154" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -5433,7 +5430,7 @@
         <v>605.45</v>
       </c>
       <c r="D155" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5447,7 +5444,7 @@
         <v>536.66</v>
       </c>
       <c r="D156" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -5461,7 +5458,7 @@
         <v>846.1900000000001</v>
       </c>
       <c r="D157" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5475,7 +5472,7 @@
         <v>321.71</v>
       </c>
       <c r="D158" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -5489,7 +5486,7 @@
         <v>486.88</v>
       </c>
       <c r="D159" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -5503,7 +5500,7 @@
         <v>750.0599999999999</v>
       </c>
       <c r="D160" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5517,7 +5514,7 @@
         <v>389.9</v>
       </c>
       <c r="D161" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5531,7 +5528,7 @@
         <v>564.85</v>
       </c>
       <c r="D162" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5545,7 +5542,7 @@
         <v>393.71</v>
       </c>
       <c r="D163" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -5559,7 +5556,7 @@
         <v>289.76</v>
       </c>
       <c r="D164" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -5573,7 +5570,7 @@
         <v>488.18</v>
       </c>
       <c r="D165" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -5587,7 +5584,7 @@
         <v>609.87</v>
       </c>
       <c r="D166" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5598,10 +5595,10 @@
         <v>45</v>
       </c>
       <c r="C167" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D167" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5612,10 +5609,10 @@
         <v>55</v>
       </c>
       <c r="C168" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D168" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5643,7 +5640,7 @@
         <v>547.4400000000001</v>
       </c>
       <c r="D170" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5657,7 +5654,7 @@
         <v>287.26</v>
       </c>
       <c r="D171" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -5671,7 +5668,7 @@
         <v>340.81</v>
       </c>
       <c r="D172" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5685,7 +5682,7 @@
         <v>338.47</v>
       </c>
       <c r="D173" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5699,7 +5696,7 @@
         <v>340.81</v>
       </c>
       <c r="D174" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -5713,7 +5710,7 @@
         <v>516.3099999999999</v>
       </c>
       <c r="D175" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -5727,7 +5724,7 @@
         <v>389.74</v>
       </c>
       <c r="D176" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5741,7 +5738,7 @@
         <v>316.6</v>
       </c>
       <c r="D177" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -5783,7 +5780,7 @@
         <v>490.95</v>
       </c>
       <c r="D180" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -5797,7 +5794,7 @@
         <v>868.11</v>
       </c>
       <c r="D181" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5811,7 +5808,7 @@
         <v>331.78</v>
       </c>
       <c r="D182" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -5825,7 +5822,7 @@
         <v>809.96</v>
       </c>
       <c r="D183" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5839,7 +5836,7 @@
         <v>278.45</v>
       </c>
       <c r="D184" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -5853,7 +5850,7 @@
         <v>175.41</v>
       </c>
       <c r="D185" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5867,7 +5864,7 @@
         <v>226.38</v>
       </c>
       <c r="D186" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -5881,7 +5878,7 @@
         <v>375.92</v>
       </c>
       <c r="D187" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -5895,7 +5892,7 @@
         <v>353.37</v>
       </c>
       <c r="D188" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -5909,7 +5906,7 @@
         <v>479.16</v>
       </c>
       <c r="D189" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -5923,7 +5920,7 @@
         <v>358.55</v>
       </c>
       <c r="D190" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -6007,7 +6004,7 @@
         <v>360.7</v>
       </c>
       <c r="D196" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -6077,7 +6074,7 @@
         <v>391.04</v>
       </c>
       <c r="D201" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -6091,7 +6088,7 @@
         <v>1023.1</v>
       </c>
       <c r="D202" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -6105,7 +6102,7 @@
         <v>539.6799999999999</v>
       </c>
       <c r="D203" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -6119,7 +6116,7 @@
         <v>376.25</v>
       </c>
       <c r="D204" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -6133,7 +6130,7 @@
         <v>354.23</v>
       </c>
       <c r="D205" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -6147,7 +6144,7 @@
         <v>2235.1</v>
       </c>
       <c r="D206" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -6161,7 +6158,7 @@
         <v>1460.8</v>
       </c>
       <c r="D207" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -6175,7 +6172,7 @@
         <v>1047</v>
       </c>
       <c r="D208" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -6189,7 +6186,7 @@
         <v>840.4400000000001</v>
       </c>
       <c r="D209" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -6217,7 +6214,7 @@
         <v>134.41</v>
       </c>
       <c r="D211" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -6231,7 +6228,7 @@
         <v>30.571</v>
       </c>
       <c r="D212" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -6245,7 +6242,7 @@
         <v>95.40600000000001</v>
       </c>
       <c r="D213" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -6259,7 +6256,7 @@
         <v>112.01</v>
       </c>
       <c r="D214" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -6273,7 +6270,7 @@
         <v>142.66</v>
       </c>
       <c r="D215" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -6287,7 +6284,7 @@
         <v>171.61</v>
       </c>
       <c r="D216" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -6301,7 +6298,7 @@
         <v>142.57</v>
       </c>
       <c r="D217" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -6315,7 +6312,7 @@
         <v>128.03</v>
       </c>
       <c r="D218" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -6329,7 +6326,7 @@
         <v>270</v>
       </c>
       <c r="D219" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -6343,7 +6340,7 @@
         <v>161.55</v>
       </c>
       <c r="D220" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -6351,13 +6348,13 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C221">
         <v>317.43</v>
       </c>
       <c r="D221" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -6385,7 +6382,7 @@
         <v>233.21</v>
       </c>
       <c r="D223" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -6427,7 +6424,7 @@
         <v>398.1</v>
       </c>
       <c r="D226" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -6455,7 +6452,7 @@
         <v>210.13</v>
       </c>
       <c r="D228" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -6469,7 +6466,7 @@
         <v>182.18</v>
       </c>
       <c r="D229" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -6553,7 +6550,7 @@
         <v>294.99</v>
       </c>
       <c r="D235" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -6581,7 +6578,7 @@
         <v>189.86</v>
       </c>
       <c r="D237" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -6589,13 +6586,13 @@
         <v>30</v>
       </c>
       <c r="B238" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C238">
         <v>371.59</v>
       </c>
       <c r="D238" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -6609,7 +6606,7 @@
         <v>327.31</v>
       </c>
       <c r="D239" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -6623,7 +6620,7 @@
         <v>283.78</v>
       </c>
       <c r="D240" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -6637,7 +6634,7 @@
         <v>241.94</v>
       </c>
       <c r="D241" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -6651,7 +6648,7 @@
         <v>188.61</v>
       </c>
       <c r="D242" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -6665,7 +6662,7 @@
         <v>260.99</v>
       </c>
       <c r="D243" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -6679,7 +6676,7 @@
         <v>784.51</v>
       </c>
       <c r="D244" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -6693,7 +6690,7 @@
         <v>389.23</v>
       </c>
       <c r="D245" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -6721,7 +6718,7 @@
         <v>313.25</v>
       </c>
       <c r="D247" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -6735,7 +6732,7 @@
         <v>440.99</v>
       </c>
       <c r="D248" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -6749,7 +6746,7 @@
         <v>799.66</v>
       </c>
       <c r="D249" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -6763,7 +6760,7 @@
         <v>486.62</v>
       </c>
       <c r="D250" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -6791,7 +6788,7 @@
         <v>440.99</v>
       </c>
       <c r="D252" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -6805,7 +6802,7 @@
         <v>656.8</v>
       </c>
       <c r="D253" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -6847,7 +6844,7 @@
         <v>245.07</v>
       </c>
       <c r="D256" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6861,7 +6858,7 @@
         <v>762.86</v>
       </c>
       <c r="D257" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -6903,7 +6900,7 @@
         <v>381.98</v>
       </c>
       <c r="D260" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -6917,7 +6914,7 @@
         <v>101.61</v>
       </c>
       <c r="D261" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -6931,7 +6928,7 @@
         <v>812.26</v>
       </c>
       <c r="D262" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -6945,7 +6942,7 @@
         <v>609.87</v>
       </c>
       <c r="D263" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -6959,7 +6956,7 @@
         <v>455.68</v>
       </c>
       <c r="D264" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -6973,7 +6970,7 @@
         <v>941.03</v>
       </c>
       <c r="D265" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -7001,7 +6998,7 @@
         <v>246.61</v>
       </c>
       <c r="D267" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -7015,7 +7012,7 @@
         <v>37.479</v>
       </c>
       <c r="D268" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -7029,7 +7026,7 @@
         <v>66.42</v>
       </c>
       <c r="D269" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -7043,7 +7040,7 @@
         <v>51.095</v>
       </c>
       <c r="D270" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -7057,7 +7054,7 @@
         <v>70.545</v>
       </c>
       <c r="D271" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -7071,7 +7068,7 @@
         <v>65.8</v>
       </c>
       <c r="D272" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -7085,7 +7082,7 @@
         <v>59.652</v>
       </c>
       <c r="D273" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -7099,7 +7096,7 @@
         <v>28.111</v>
       </c>
       <c r="D274" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -7113,7 +7110,7 @@
         <v>60.476</v>
       </c>
       <c r="D275" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -7127,7 +7124,7 @@
         <v>53.609</v>
       </c>
       <c r="D276" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -7141,7 +7138,7 @@
         <v>181.61</v>
       </c>
       <c r="D277" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -7155,7 +7152,7 @@
         <v>61.782</v>
       </c>
       <c r="D278" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -7163,13 +7160,13 @@
         <v>45</v>
       </c>
       <c r="B279" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C279">
         <v>130.28</v>
       </c>
       <c r="D279" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -7183,7 +7180,7 @@
         <v>9.146000000000001</v>
       </c>
       <c r="D280" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -7197,7 +7194,7 @@
         <v>7.6875</v>
       </c>
       <c r="D281" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -7211,7 +7208,7 @@
         <v>8.289899999999999</v>
       </c>
       <c r="D282" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -7225,7 +7222,7 @@
         <v>7.1798</v>
       </c>
       <c r="D283" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -7239,7 +7236,7 @@
         <v>5.8745</v>
       </c>
       <c r="D284" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -7253,7 +7250,7 @@
         <v>27.891</v>
       </c>
       <c r="D285" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -7267,7 +7264,7 @@
         <v>22.89</v>
       </c>
       <c r="D286" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -7281,7 +7278,7 @@
         <v>27.937</v>
       </c>
       <c r="D287" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -7295,7 +7292,7 @@
         <v>24.988</v>
       </c>
       <c r="D288" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -7309,7 +7306,7 @@
         <v>21.381</v>
       </c>
       <c r="D289" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -7323,7 +7320,7 @@
         <v>9.9114</v>
       </c>
       <c r="D290" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -7337,7 +7334,7 @@
         <v>54.72</v>
       </c>
       <c r="D291" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -7351,7 +7348,7 @@
         <v>43.679</v>
       </c>
       <c r="D292" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -7365,7 +7362,7 @@
         <v>61.007</v>
       </c>
       <c r="D293" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -7379,7 +7376,7 @@
         <v>56.589</v>
       </c>
       <c r="D294" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -7393,7 +7390,7 @@
         <v>50.96</v>
       </c>
       <c r="D295" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -7407,7 +7404,7 @@
         <v>24.044</v>
       </c>
       <c r="D296" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -7421,7 +7418,7 @@
         <v>67.92700000000001</v>
       </c>
       <c r="D297" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -7435,7 +7432,7 @@
         <v>53.631</v>
       </c>
       <c r="D298" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -7449,7 +7446,7 @@
         <v>78.25</v>
       </c>
       <c r="D299" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -7463,7 +7460,7 @@
         <v>73.485</v>
       </c>
       <c r="D300" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -7477,7 +7474,7 @@
         <v>67.339</v>
       </c>
       <c r="D301" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -7491,7 +7488,7 @@
         <v>33.261</v>
       </c>
       <c r="D302" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -7505,7 +7502,7 @@
         <v>28.049</v>
       </c>
       <c r="D303" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -7519,7 +7516,7 @@
         <v>29.599</v>
       </c>
       <c r="D304" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -7533,7 +7530,7 @@
         <v>25.497</v>
       </c>
       <c r="D305" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -7547,7 +7544,7 @@
         <v>20.706</v>
       </c>
       <c r="D306" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -7561,7 +7558,7 @@
         <v>77.226</v>
       </c>
       <c r="D307" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -7575,7 +7572,7 @@
         <v>63.569</v>
       </c>
       <c r="D308" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -7589,7 +7586,7 @@
         <v>76.931</v>
       </c>
       <c r="D309" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -7603,7 +7600,7 @@
         <v>68.642</v>
       </c>
       <c r="D310" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -7617,7 +7614,7 @@
         <v>58.533</v>
       </c>
       <c r="D311" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -7631,7 +7628,7 @@
         <v>90.491</v>
       </c>
       <c r="D312" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -7645,7 +7642,7 @@
         <v>73.56699999999999</v>
       </c>
       <c r="D313" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -7659,7 +7656,7 @@
         <v>95.8</v>
       </c>
       <c r="D314" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -7673,7 +7670,7 @@
         <v>87.128</v>
       </c>
       <c r="D315" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -7687,7 +7684,7 @@
         <v>76.316</v>
       </c>
       <c r="D316" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -7701,7 +7698,7 @@
         <v>109.85</v>
       </c>
       <c r="D317" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -7715,7 +7712,7 @@
         <v>88.20999999999999</v>
       </c>
       <c r="D318" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -7729,7 +7726,7 @@
         <v>122.04</v>
       </c>
       <c r="D319" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -7743,7 +7740,7 @@
         <v>112.83</v>
       </c>
       <c r="D320" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -7757,7 +7754,7 @@
         <v>101.14</v>
       </c>
       <c r="D321" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -7771,7 +7768,7 @@
         <v>61.982</v>
       </c>
       <c r="D322" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -7785,7 +7782,7 @@
         <v>24.277</v>
       </c>
       <c r="D323" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -7799,7 +7796,7 @@
         <v>123.21</v>
       </c>
       <c r="D324" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -7813,7 +7810,7 @@
         <v>44.52</v>
       </c>
       <c r="D325" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -7827,7 +7824,7 @@
         <v>21.265</v>
       </c>
       <c r="D326" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -7841,7 +7838,7 @@
         <v>75.239</v>
       </c>
       <c r="D327" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -7855,7 +7852,7 @@
         <v>220.37</v>
       </c>
       <c r="D328" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -7869,7 +7866,7 @@
         <v>102.98</v>
       </c>
       <c r="D329" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -7918,19 +7915,19 @@
         <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -7938,13 +7935,13 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2">
         <v>563.5599999999999</v>
@@ -7958,13 +7955,13 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
         <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3">
         <v>563.5599999999999</v>
@@ -7978,13 +7975,13 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4">
         <v>3961.5</v>
@@ -7998,13 +7995,13 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5">
         <v>563.5599999999999</v>
@@ -8018,13 +8015,13 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
         <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E6">
         <v>563.5599999999999</v>
@@ -8038,13 +8035,13 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
         <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7">
         <v>3961.5</v>
@@ -8058,13 +8055,13 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8">
         <v>563.5599999999999</v>
@@ -8078,13 +8075,13 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
         <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E9">
         <v>563.5599999999999</v>
@@ -8098,13 +8095,13 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E10">
         <v>6427.9</v>
@@ -8118,13 +8115,13 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E11">
         <v>1451.8</v>
@@ -8138,13 +8135,13 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12">
         <v>1252.6</v>
@@ -8158,13 +8155,13 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13">
         <v>2567.7</v>
@@ -8178,13 +8175,13 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14">
         <v>1062.1</v>
@@ -8198,13 +8195,13 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15">
         <v>997.89</v>
@@ -8218,13 +8215,13 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16">
         <v>3238.4</v>
@@ -8238,13 +8235,13 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17">
         <v>1451.8</v>
@@ -8258,13 +8255,13 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
         <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E18">
         <v>1252.6</v>
@@ -8278,13 +8275,13 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
         <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E19">
         <v>2036</v>
@@ -8298,13 +8295,13 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20">
         <v>980.2</v>
@@ -8318,13 +8315,13 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E21">
         <v>1588.7</v>
@@ -8338,13 +8335,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E22">
         <v>417.24</v>
@@ -8358,13 +8355,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23">
         <v>1386.8</v>
@@ -8378,13 +8375,13 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E24">
         <v>1492.9</v>
@@ -8398,13 +8395,13 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E25">
         <v>1177.4</v>
@@ -8418,13 +8415,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
         <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E26">
         <v>1844.8</v>
@@ -8438,13 +8435,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
         <v>32</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E27">
         <v>686.9299999999999</v>
@@ -8458,13 +8455,13 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E28">
         <v>1323.1</v>
@@ -8478,13 +8475,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E29">
         <v>1186.9</v>
@@ -8498,13 +8495,13 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
         <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E30">
         <v>2162.2</v>
@@ -8518,13 +8515,13 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
         <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E31">
         <v>1053.1</v>
@@ -8538,13 +8535,13 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" t="s">
         <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E32">
         <v>2732.9</v>
@@ -8558,13 +8555,13 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
         <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E33">
         <v>2208.9</v>
@@ -8578,13 +8575,13 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E34">
         <v>1245.8</v>
@@ -8598,13 +8595,13 @@
         <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
         <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E35">
         <v>1920.1</v>
@@ -8618,13 +8615,13 @@
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
         <v>67</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E36">
         <v>1772.3</v>
@@ -8638,13 +8635,13 @@
         <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
         <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E37">
         <v>1985.4</v>
@@ -8658,13 +8655,13 @@
         <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E38">
         <v>1993.5</v>
@@ -8678,13 +8675,13 @@
         <v>27</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
       </c>
       <c r="D39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E39">
         <v>1993.5</v>
@@ -8698,13 +8695,13 @@
         <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
         <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E40">
         <v>1398.1</v>
@@ -8718,13 +8715,13 @@
         <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" t="s">
         <v>31</v>
       </c>
       <c r="D41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E41">
         <v>500</v>
@@ -8738,13 +8735,13 @@
         <v>27</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C42" t="s">
         <v>31</v>
       </c>
       <c r="D42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E42">
         <v>2225.6</v>
@@ -8758,13 +8755,13 @@
         <v>27</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
         <v>32</v>
       </c>
       <c r="D43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E43">
         <v>621.6799999999999</v>
@@ -8778,13 +8775,13 @@
         <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
         <v>32</v>
       </c>
       <c r="D44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E44">
         <v>2153.2</v>
@@ -8798,13 +8795,13 @@
         <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
         <v>33</v>
       </c>
       <c r="D45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E45">
         <v>2289.1</v>
@@ -8818,13 +8815,13 @@
         <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
         <v>33</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E46">
         <v>2140.9</v>
@@ -8838,13 +8835,13 @@
         <v>27</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
         <v>34</v>
       </c>
       <c r="D47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E47">
         <v>1988.3</v>
@@ -8858,13 +8855,13 @@
         <v>27</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
         <v>34</v>
       </c>
       <c r="D48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E48">
         <v>1460</v>
@@ -8878,13 +8875,13 @@
         <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
         <v>35</v>
       </c>
       <c r="D49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E49">
         <v>1064.5</v>
@@ -8898,13 +8895,13 @@
         <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
         <v>35</v>
       </c>
       <c r="D50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E50">
         <v>3890.4</v>
@@ -8918,13 +8915,13 @@
         <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" t="s">
         <v>36</v>
       </c>
       <c r="D51" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E51">
         <v>2783.7</v>
@@ -8938,13 +8935,13 @@
         <v>27</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C52" t="s">
         <v>37</v>
       </c>
       <c r="D52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E52">
         <v>1701</v>
@@ -8958,13 +8955,13 @@
         <v>27</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C53" t="s">
         <v>37</v>
       </c>
       <c r="D53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E53">
         <v>2838.4</v>
@@ -8978,13 +8975,13 @@
         <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C54" t="s">
         <v>38</v>
       </c>
       <c r="D54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E54">
         <v>5203.7</v>
@@ -8998,13 +8995,13 @@
         <v>27</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C55" t="s">
         <v>40</v>
       </c>
       <c r="D55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E55">
         <v>563.5599999999999</v>
@@ -9018,13 +9015,13 @@
         <v>27</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
         <v>41</v>
       </c>
       <c r="D56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E56">
         <v>2500</v>
@@ -9038,13 +9035,13 @@
         <v>27</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C57" t="s">
         <v>41</v>
       </c>
       <c r="D57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E57">
         <v>1798.2</v>
@@ -9058,13 +9055,13 @@
         <v>27</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C58" t="s">
         <v>41</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E58">
         <v>563.5599999999999</v>
@@ -9078,13 +9075,13 @@
         <v>27</v>
       </c>
       <c r="B59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C59" t="s">
         <v>43</v>
       </c>
       <c r="D59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E59">
         <v>5903.8</v>
@@ -9098,13 +9095,13 @@
         <v>27</v>
       </c>
       <c r="B60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C60" t="s">
         <v>43</v>
       </c>
       <c r="D60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E60">
         <v>5477.7</v>
@@ -9118,13 +9115,13 @@
         <v>27</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C61" t="s">
         <v>44</v>
       </c>
       <c r="D61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E61">
         <v>4115.4</v>
@@ -9138,13 +9135,13 @@
         <v>27</v>
       </c>
       <c r="B62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C62" t="s">
         <v>45</v>
       </c>
       <c r="D62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E62">
         <v>1985.4</v>
@@ -9158,13 +9155,13 @@
         <v>27</v>
       </c>
       <c r="B63" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C63" t="s">
         <v>54</v>
       </c>
       <c r="D63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E63">
         <v>2783.7</v>
@@ -9178,13 +9175,13 @@
         <v>27</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C64" t="s">
         <v>55</v>
       </c>
       <c r="D64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E64">
         <v>1492</v>
@@ -9198,13 +9195,13 @@
         <v>27</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C65" t="s">
         <v>60</v>
       </c>
       <c r="D65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E65">
         <v>802.21</v>
@@ -9218,13 +9215,13 @@
         <v>27</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C66" t="s">
         <v>63</v>
       </c>
       <c r="D66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E66">
         <v>2900</v>
@@ -9238,13 +9235,13 @@
         <v>27</v>
       </c>
       <c r="B67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C67" t="s">
         <v>63</v>
       </c>
       <c r="D67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E67">
         <v>1606.6</v>
@@ -9258,13 +9255,13 @@
         <v>27</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C68" t="s">
         <v>64</v>
       </c>
       <c r="D68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E68">
         <v>2350</v>
@@ -9278,13 +9275,13 @@
         <v>27</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C69" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E69">
         <v>1398.1</v>
@@ -9298,13 +9295,13 @@
         <v>27</v>
       </c>
       <c r="B70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C70" t="s">
         <v>67</v>
       </c>
       <c r="D70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E70">
         <v>882.05</v>
@@ -9318,13 +9315,13 @@
         <v>27</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C71" t="s">
         <v>67</v>
       </c>
       <c r="D71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E71">
         <v>882.05</v>
@@ -9338,13 +9335,13 @@
         <v>27</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72" t="s">
         <v>67</v>
       </c>
       <c r="D72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E72">
         <v>5192.5</v>
@@ -9358,13 +9355,13 @@
         <v>28</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
       </c>
       <c r="D73" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E73">
         <v>2062.1</v>
@@ -9378,13 +9375,13 @@
         <v>28</v>
       </c>
       <c r="B74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C74" t="s">
         <v>67</v>
       </c>
       <c r="D74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E74">
         <v>1400.7</v>
@@ -9398,13 +9395,13 @@
         <v>28</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C75" t="s">
         <v>67</v>
       </c>
       <c r="D75" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E75">
         <v>871.46</v>
@@ -9418,13 +9415,13 @@
         <v>28</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
       </c>
       <c r="D76" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E76">
         <v>2346</v>
@@ -9438,13 +9435,13 @@
         <v>28</v>
       </c>
       <c r="B77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C77" t="s">
         <v>68</v>
       </c>
       <c r="D77" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E77">
         <v>2346</v>
@@ -9458,13 +9455,13 @@
         <v>30</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C78" t="s">
         <v>34</v>
       </c>
       <c r="D78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E78">
         <v>4023.9</v>
@@ -9478,13 +9475,13 @@
         <v>30</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C79" t="s">
         <v>34</v>
       </c>
       <c r="D79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E79">
         <v>5981.4</v>
@@ -9498,13 +9495,13 @@
         <v>30</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C80" t="s">
         <v>35</v>
       </c>
       <c r="D80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E80">
         <v>6012.1</v>
@@ -9518,13 +9515,13 @@
         <v>30</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C81" t="s">
         <v>35</v>
       </c>
       <c r="D81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E81">
         <v>7420.5</v>
@@ -9538,13 +9535,13 @@
         <v>30</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C82" t="s">
         <v>36</v>
       </c>
       <c r="D82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E82">
         <v>4270.8</v>
@@ -9558,13 +9555,13 @@
         <v>30</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C83" t="s">
         <v>36</v>
       </c>
       <c r="D83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E83">
         <v>7439.8</v>
@@ -9578,13 +9575,13 @@
         <v>30</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C84" t="s">
         <v>37</v>
       </c>
       <c r="D84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E84">
         <v>5696.6</v>
@@ -9598,13 +9595,13 @@
         <v>30</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C85" t="s">
         <v>37</v>
       </c>
       <c r="D85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E85">
         <v>6017.9</v>
@@ -9618,13 +9615,13 @@
         <v>30</v>
       </c>
       <c r="B86" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C86" t="s">
         <v>38</v>
       </c>
       <c r="D86" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E86">
         <v>3388.6</v>
@@ -9638,13 +9635,13 @@
         <v>30</v>
       </c>
       <c r="B87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C87" t="s">
         <v>38</v>
       </c>
       <c r="D87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E87">
         <v>3004.9</v>
@@ -9658,13 +9655,13 @@
         <v>30</v>
       </c>
       <c r="B88" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C88" t="s">
         <v>43</v>
       </c>
       <c r="D88" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E88">
         <v>2246</v>
@@ -9678,13 +9675,13 @@
         <v>30</v>
       </c>
       <c r="B89" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C89" t="s">
         <v>43</v>
       </c>
       <c r="D89" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E89">
         <v>3870.8</v>
@@ -9698,13 +9695,13 @@
         <v>31</v>
       </c>
       <c r="B90" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C90" t="s">
         <v>31</v>
       </c>
       <c r="D90" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E90">
         <v>2161</v>
@@ -9718,13 +9715,13 @@
         <v>31</v>
       </c>
       <c r="B91" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C91" t="s">
         <v>34</v>
       </c>
       <c r="D91" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E91">
         <v>1282.7</v>
@@ -9738,13 +9735,13 @@
         <v>31</v>
       </c>
       <c r="B92" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C92" t="s">
         <v>34</v>
       </c>
       <c r="D92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E92">
         <v>1354</v>
@@ -9758,13 +9755,13 @@
         <v>31</v>
       </c>
       <c r="B93" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C93" t="s">
         <v>35</v>
       </c>
       <c r="D93" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E93">
         <v>861.12</v>
@@ -9778,13 +9775,13 @@
         <v>31</v>
       </c>
       <c r="B94" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C94" t="s">
         <v>35</v>
       </c>
       <c r="D94" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E94">
         <v>1477.7</v>
@@ -9798,13 +9795,13 @@
         <v>31</v>
       </c>
       <c r="B95" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C95" t="s">
         <v>36</v>
       </c>
       <c r="D95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E95">
         <v>1357.2</v>
@@ -9818,13 +9815,13 @@
         <v>32</v>
       </c>
       <c r="B96" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C96" t="s">
         <v>32</v>
       </c>
       <c r="D96" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E96">
         <v>2097.9</v>
@@ -9838,13 +9835,13 @@
         <v>32</v>
       </c>
       <c r="B97" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C97" t="s">
         <v>33</v>
       </c>
       <c r="D97" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E97">
         <v>1464.1</v>
@@ -9858,13 +9855,13 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C98" t="s">
         <v>33</v>
       </c>
       <c r="D98" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E98">
         <v>2500</v>
@@ -9878,13 +9875,13 @@
         <v>32</v>
       </c>
       <c r="B99" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C99" t="s">
         <v>34</v>
       </c>
       <c r="D99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E99">
         <v>629.88</v>
@@ -9898,13 +9895,13 @@
         <v>32</v>
       </c>
       <c r="B100" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C100" t="s">
         <v>34</v>
       </c>
       <c r="D100" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E100">
         <v>2403.8</v>
@@ -9918,13 +9915,13 @@
         <v>32</v>
       </c>
       <c r="B101" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C101" t="s">
         <v>35</v>
       </c>
       <c r="D101" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E101">
         <v>341.13</v>
@@ -9938,13 +9935,13 @@
         <v>32</v>
       </c>
       <c r="B102" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C102" t="s">
         <v>35</v>
       </c>
       <c r="D102" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E102">
         <v>1390.1</v>
@@ -9958,13 +9955,13 @@
         <v>32</v>
       </c>
       <c r="B103" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C103" t="s">
         <v>36</v>
       </c>
       <c r="D103" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E103">
         <v>1247.2</v>
@@ -9978,13 +9975,13 @@
         <v>32</v>
       </c>
       <c r="B104" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C104" t="s">
         <v>41</v>
       </c>
       <c r="D104" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E104">
         <v>2182.7</v>
@@ -9998,13 +9995,13 @@
         <v>32</v>
       </c>
       <c r="B105" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C105" t="s">
         <v>41</v>
       </c>
       <c r="D105" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E105">
         <v>250.03</v>
@@ -10018,13 +10015,13 @@
         <v>32</v>
       </c>
       <c r="B106" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C106" t="s">
         <v>54</v>
       </c>
       <c r="D106" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E106">
         <v>1247.2</v>
@@ -10038,13 +10035,13 @@
         <v>32</v>
       </c>
       <c r="B107" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C107" t="s">
         <v>67</v>
       </c>
       <c r="D107" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E107">
         <v>1284.9</v>
@@ -10058,13 +10055,13 @@
         <v>32</v>
       </c>
       <c r="B108" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C108" t="s">
         <v>67</v>
       </c>
       <c r="D108" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E108">
         <v>3889.3</v>
@@ -10078,13 +10075,13 @@
         <v>32</v>
       </c>
       <c r="B109" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C109" t="s">
         <v>67</v>
       </c>
       <c r="D109" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E109">
         <v>1284.9</v>
@@ -10098,13 +10095,13 @@
         <v>33</v>
       </c>
       <c r="B110" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C110" t="s">
         <v>33</v>
       </c>
       <c r="D110" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E110">
         <v>2480.6</v>
@@ -10118,13 +10115,13 @@
         <v>33</v>
       </c>
       <c r="B111" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C111" t="s">
         <v>67</v>
       </c>
       <c r="D111" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E111">
         <v>2278.5</v>
@@ -10138,13 +10135,13 @@
         <v>33</v>
       </c>
       <c r="B112" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C112" t="s">
         <v>67</v>
       </c>
       <c r="D112" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E112">
         <v>2278.5</v>
@@ -10158,13 +10155,13 @@
         <v>33</v>
       </c>
       <c r="B113" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C113" t="s">
         <v>67</v>
       </c>
       <c r="D113" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E113">
         <v>2278.5</v>
@@ -10178,13 +10175,13 @@
         <v>34</v>
       </c>
       <c r="B114" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C114" t="s">
         <v>34</v>
       </c>
       <c r="D114" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E114">
         <v>1070.8</v>
@@ -10198,13 +10195,13 @@
         <v>34</v>
       </c>
       <c r="B115" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C115" t="s">
         <v>35</v>
       </c>
       <c r="D115" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E115">
         <v>1639.9</v>
@@ -10218,13 +10215,13 @@
         <v>34</v>
       </c>
       <c r="B116" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C116" t="s">
         <v>35</v>
       </c>
       <c r="D116" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E116">
         <v>1682.1</v>
@@ -10238,13 +10235,13 @@
         <v>35</v>
       </c>
       <c r="B117" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C117" t="s">
         <v>35</v>
       </c>
       <c r="D117" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E117">
         <v>1370.3</v>
@@ -10258,13 +10255,13 @@
         <v>37</v>
       </c>
       <c r="B118" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C118" t="s">
         <v>37</v>
       </c>
       <c r="D118" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E118">
         <v>1511.6</v>
@@ -10278,13 +10275,13 @@
         <v>37</v>
       </c>
       <c r="B119" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C119" t="s">
         <v>38</v>
       </c>
       <c r="D119" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E119">
         <v>901.35</v>
@@ -10298,13 +10295,13 @@
         <v>40</v>
       </c>
       <c r="B120" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C120" t="s">
         <v>67</v>
       </c>
       <c r="D120" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E120">
         <v>3961.5</v>
@@ -10318,13 +10315,13 @@
         <v>41</v>
       </c>
       <c r="B121" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C121" t="s">
         <v>41</v>
       </c>
       <c r="D121" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E121">
         <v>1538.1</v>
@@ -10338,13 +10335,13 @@
         <v>43</v>
       </c>
       <c r="B122" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C122" t="s">
         <v>43</v>
       </c>
       <c r="D122" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E122">
         <v>1293.5</v>
@@ -10358,13 +10355,13 @@
         <v>45</v>
       </c>
       <c r="B123" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C123" t="s">
         <v>55</v>
       </c>
       <c r="D123" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E123">
         <v>1492</v>
@@ -10378,13 +10375,13 @@
         <v>45</v>
       </c>
       <c r="B124" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C124" t="s">
         <v>60</v>
       </c>
       <c r="D124" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E124">
         <v>802.21</v>
@@ -10398,13 +10395,13 @@
         <v>45</v>
       </c>
       <c r="B125" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C125" t="s">
         <v>62</v>
       </c>
       <c r="D125" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E125">
         <v>2266</v>
@@ -10418,13 +10415,13 @@
         <v>45</v>
       </c>
       <c r="B126" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C126" t="s">
         <v>64</v>
       </c>
       <c r="D126" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E126">
         <v>2900</v>
@@ -10438,13 +10435,13 @@
         <v>45</v>
       </c>
       <c r="B127" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C127" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D127" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E127">
         <v>1398.1</v>
@@ -10458,13 +10455,13 @@
         <v>63</v>
       </c>
       <c r="B128" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C128" t="s">
         <v>63</v>
       </c>
       <c r="D128" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E128">
         <v>1300</v>
@@ -10478,13 +10475,13 @@
         <v>67</v>
       </c>
       <c r="B129" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C129" t="s">
         <v>67</v>
       </c>
       <c r="D129" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E129">
         <v>4745.7</v>
@@ -10498,13 +10495,13 @@
         <v>67</v>
       </c>
       <c r="B130" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C130" t="s">
         <v>68</v>
       </c>
       <c r="D130" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E130">
         <v>2424.1</v>
@@ -10518,13 +10515,13 @@
         <v>67</v>
       </c>
       <c r="B131" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C131" t="s">
         <v>69</v>
       </c>
       <c r="D131" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E131">
         <v>2828.1</v>
@@ -10554,7 +10551,7 @@
         <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>74</v>
@@ -10571,13 +10568,13 @@
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2">
         <v>509.37</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -10588,13 +10585,13 @@
         <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3">
         <v>780.24</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -10605,13 +10602,13 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>358.02</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -10622,13 +10619,13 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>339.89</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -10639,7 +10636,7 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>134.58</v>
@@ -10656,7 +10653,7 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7">
         <v>90.008</v>
@@ -10673,7 +10670,7 @@
         <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8">
         <v>1569.8</v>
@@ -10690,13 +10687,13 @@
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9">
         <v>241.18</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -10717,19 +10714,19 @@
         <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -10737,13 +10734,13 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E2">
         <v>600</v>
@@ -10757,13 +10754,13 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3">
         <v>2000.6</v>
@@ -10777,13 +10774,13 @@
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4">
         <v>1364.4</v>
@@ -10797,13 +10794,13 @@
         <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5">
         <v>1877.5</v>
@@ -10817,13 +10814,13 @@
         <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6">
         <v>3313</v>
@@ -10837,13 +10834,13 @@
         <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7">
         <v>4943.6</v>
@@ -10857,13 +10854,13 @@
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8">
         <v>629.88</v>
@@ -10877,13 +10874,13 @@
         <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E9">
         <v>2403.8</v>
@@ -10897,13 +10894,13 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10">
         <v>7020.9</v>
@@ -10917,13 +10914,13 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11">
         <v>2490.6</v>
@@ -10937,13 +10934,13 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E12">
         <v>1390.1</v>
@@ -10957,13 +10954,13 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13">
         <v>341.13</v>
@@ -10977,13 +10974,13 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14">
         <v>2876.5</v>
@@ -10997,13 +10994,13 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E15">
         <v>5500.7</v>
@@ -11017,13 +11014,13 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16">
         <v>3437.4</v>
@@ -11037,13 +11034,13 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17">
         <v>1210.9</v>

--- a/sgtpy/database/saftgamma_database.xlsx
+++ b/sgtpy/database/saftgamma_database.xlsx
@@ -18,7 +18,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="95">
+  <si>
+    <t>groups</t>
+  </si>
   <si>
     <t>vk*</t>
   </si>
@@ -57,9 +60,6 @@
   </si>
   <si>
     <t>mw_kk</t>
-  </si>
-  <si>
-    <t>groups</t>
   </si>
   <si>
     <t>CH3</t>
@@ -291,6 +291,18 @@
   </si>
   <si>
     <t>R1CH3N[CH2 CH2OH]</t>
+  </si>
+  <si>
+    <t>[NHCH2CH2OH]2</t>
+  </si>
+  <si>
+    <t>[R(CH2)n]CH2OH; n = 0, 1, 2 (excluding butanol)</t>
+  </si>
+  <si>
+    <t>NH[CH2 CH2OH]2</t>
+  </si>
+  <si>
+    <t>R1CH3N[CH2 CH2OH]</t>
   </si>
 </sst>
 </file>
@@ -656,50 +668,50 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2">
@@ -743,7 +755,7 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3">
@@ -787,7 +799,7 @@
       </c>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4">
@@ -831,7 +843,7 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5">
@@ -875,7 +887,7 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6">
@@ -919,7 +931,7 @@
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7">
@@ -963,7 +975,7 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8">
@@ -1007,7 +1019,7 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>21</v>
       </c>
       <c r="B9">
@@ -1051,7 +1063,7 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="B10">
@@ -1095,7 +1107,7 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="B11">
@@ -1139,7 +1151,7 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
       <c r="B12">
@@ -1183,7 +1195,7 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
       <c r="B13">
@@ -1227,7 +1239,7 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
       <c r="B14">
@@ -1271,7 +1283,7 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>27</v>
       </c>
       <c r="B15">
@@ -1315,7 +1327,7 @@
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16">
@@ -1359,7 +1371,7 @@
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>29</v>
       </c>
       <c r="B17">
@@ -1403,7 +1415,7 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>30</v>
       </c>
       <c r="B18">
@@ -1447,7 +1459,7 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
       <c r="B19">
@@ -1491,7 +1503,7 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>32</v>
       </c>
       <c r="B20">
@@ -1535,7 +1547,7 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
       <c r="B21">
@@ -1579,7 +1591,7 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>34</v>
       </c>
       <c r="B22">
@@ -1623,7 +1635,7 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>35</v>
       </c>
       <c r="B23">
@@ -1667,7 +1679,7 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>36</v>
       </c>
       <c r="B24">
@@ -1711,7 +1723,7 @@
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>37</v>
       </c>
       <c r="B25">
@@ -1755,7 +1767,7 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>38</v>
       </c>
       <c r="B26">
@@ -1799,7 +1811,7 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>39</v>
       </c>
       <c r="B27">
@@ -1843,7 +1855,7 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>40</v>
       </c>
       <c r="B28">
@@ -1887,7 +1899,7 @@
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>41</v>
       </c>
       <c r="B29">
@@ -1931,7 +1943,7 @@
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>42</v>
       </c>
       <c r="B30">
@@ -1975,7 +1987,7 @@
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>43</v>
       </c>
       <c r="B31">
@@ -2019,7 +2031,7 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>44</v>
       </c>
       <c r="B32">
@@ -2063,7 +2075,7 @@
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>45</v>
       </c>
       <c r="B33">
@@ -2107,7 +2119,7 @@
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>46</v>
       </c>
       <c r="B34">
@@ -2151,7 +2163,7 @@
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>47</v>
       </c>
       <c r="B35">
@@ -2195,7 +2207,7 @@
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>48</v>
       </c>
       <c r="B36">
@@ -2239,7 +2251,7 @@
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>49</v>
       </c>
       <c r="B37">
@@ -2283,7 +2295,7 @@
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>50</v>
       </c>
       <c r="B38">
@@ -2327,7 +2339,7 @@
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>51</v>
       </c>
       <c r="B39">
@@ -2371,7 +2383,7 @@
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>52</v>
       </c>
       <c r="B40">
@@ -2415,7 +2427,7 @@
       </c>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>53</v>
       </c>
       <c r="B41">
@@ -2459,7 +2471,7 @@
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>54</v>
       </c>
       <c r="B42">
@@ -2503,7 +2515,7 @@
       </c>
     </row>
     <row r="43" spans="1:14">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>55</v>
       </c>
       <c r="B43">
@@ -2547,7 +2559,7 @@
       </c>
     </row>
     <row r="44" spans="1:14">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>56</v>
       </c>
       <c r="B44">
@@ -2591,7 +2603,7 @@
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>57</v>
       </c>
       <c r="B45">
@@ -2635,7 +2647,7 @@
       </c>
     </row>
     <row r="46" spans="1:14">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>58</v>
       </c>
       <c r="B46">
@@ -2679,7 +2691,7 @@
       </c>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>59</v>
       </c>
       <c r="B47">
@@ -2723,7 +2735,7 @@
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>60</v>
       </c>
       <c r="B48">
@@ -2767,7 +2779,7 @@
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>61</v>
       </c>
       <c r="B49">
@@ -2811,7 +2823,7 @@
       </c>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>62</v>
       </c>
       <c r="B50">
@@ -2855,7 +2867,7 @@
       </c>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>63</v>
       </c>
       <c r="B51">
@@ -2899,7 +2911,7 @@
       </c>
     </row>
     <row r="52" spans="1:14">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>64</v>
       </c>
       <c r="B52">
@@ -2943,7 +2955,7 @@
       </c>
     </row>
     <row r="53" spans="1:14">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>65</v>
       </c>
       <c r="B53">
@@ -2987,7 +2999,7 @@
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>66</v>
       </c>
       <c r="B54">
@@ -3031,7 +3043,7 @@
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>67</v>
       </c>
       <c r="B55">
@@ -3075,7 +3087,7 @@
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>68</v>
       </c>
       <c r="B56">
@@ -3119,7 +3131,7 @@
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>69</v>
       </c>
       <c r="B57">
@@ -3163,7 +3175,7 @@
       </c>
     </row>
     <row r="58" spans="1:14">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>70</v>
       </c>
       <c r="B58">
@@ -3207,7 +3219,7 @@
       </c>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>71</v>
       </c>
       <c r="B59">
@@ -3257,7 +3269,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D331"/>
+  <dimension ref="A1:D333"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7897,6 +7909,34 @@
         <v>8</v>
       </c>
     </row>
+    <row r="332" spans="1:4">
+      <c r="A332" t="s">
+        <v>44</v>
+      </c>
+      <c r="B332" t="s">
+        <v>30</v>
+      </c>
+      <c r="C332">
+        <v>161.38</v>
+      </c>
+      <c r="D332">
+        <v>33.269</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" t="s">
+        <v>32</v>
+      </c>
+      <c r="B333" t="s">
+        <v>30</v>
+      </c>
+      <c r="C333">
+        <v>312.3</v>
+      </c>
+      <c r="D333" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7904,7 +7944,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10530,6 +10570,46 @@
         <v>47.677</v>
       </c>
     </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>44</v>
+      </c>
+      <c r="B132" t="s">
+        <v>81</v>
+      </c>
+      <c r="C132" t="s">
+        <v>30</v>
+      </c>
+      <c r="D132" t="s">
+        <v>81</v>
+      </c>
+      <c r="E132">
+        <v>4114.9</v>
+      </c>
+      <c r="F132">
+        <v>4686.4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>44</v>
+      </c>
+      <c r="B133" t="s">
+        <v>81</v>
+      </c>
+      <c r="C133" t="s">
+        <v>30</v>
+      </c>
+      <c r="D133" t="s">
+        <v>83</v>
+      </c>
+      <c r="E133">
+        <v>1013.9</v>
+      </c>
+      <c r="F133">
+        <v>1551.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10537,7 +10617,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10696,6 +10776,23 @@
         <v>76</v>
       </c>
     </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10">
+        <v>488.28</v>
+      </c>
+      <c r="E10">
+        <v>49.901</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10703,13 +10800,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -10723,13 +10820,16 @@
         <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -10742,14 +10842,17 @@
       <c r="D2" t="s">
         <v>81</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2">
         <v>600</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>490.19</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -10762,14 +10865,17 @@
       <c r="D3" t="s">
         <v>82</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3">
         <v>2000.6</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>130.02</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -10782,14 +10888,17 @@
       <c r="D4" t="s">
         <v>81</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4">
         <v>1364.4</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>22.45</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -10802,14 +10911,17 @@
       <c r="D5" t="s">
         <v>82</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5">
         <v>1877.5</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>459.18</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -10822,14 +10934,17 @@
       <c r="D6" t="s">
         <v>81</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6">
         <v>3313</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3280.3</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -10842,14 +10957,17 @@
       <c r="D7" t="s">
         <v>83</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7">
         <v>4943.6</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>142.64</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -10862,14 +10980,17 @@
       <c r="D8" t="s">
         <v>81</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8">
         <v>629.88</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>346.08</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -10882,14 +11003,17 @@
       <c r="D9" t="s">
         <v>82</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9">
         <v>2403.8</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>26.192</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -10902,14 +11026,17 @@
       <c r="D10" t="s">
         <v>81</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10">
         <v>7020.9</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.0174</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -10922,14 +11049,17 @@
       <c r="D11" t="s">
         <v>83</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11">
         <v>2490.6</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>686.8200000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -10942,14 +11072,17 @@
       <c r="D12" t="s">
         <v>82</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12">
         <v>1390.1</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>947.9299999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -10962,14 +11095,17 @@
       <c r="D13" t="s">
         <v>81</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13">
         <v>341.13</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1499.8</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -10982,14 +11118,17 @@
       <c r="D14" t="s">
         <v>82</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14">
         <v>2876.5</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.84013</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -11002,14 +11141,17 @@
       <c r="D15" t="s">
         <v>81</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15">
         <v>5500.7</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1.3695</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -11022,14 +11164,17 @@
       <c r="D16" t="s">
         <v>83</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16">
         <v>3437.4</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2.767</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -11042,11 +11187,60 @@
       <c r="D17" t="s">
         <v>82</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17">
         <v>1210.9</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>950.4299999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18">
+        <v>305.8</v>
+      </c>
+      <c r="G18">
+        <v>0.011099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19">
+        <v>1756.2</v>
+      </c>
+      <c r="G19">
+        <v>24.26</v>
       </c>
     </row>
   </sheetData>

--- a/sgtpy/database/saftgamma_database.xlsx
+++ b/sgtpy/database/saftgamma_database.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3069" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3069" uniqueCount="114">
   <si>
     <t>groups</t>
   </si>
@@ -296,7 +296,13 @@
     <t xml:space="preserve">14.872   </t>
   </si>
   <si>
+    <t>sara2021</t>
+  </si>
+  <si>
     <t>felipe2023</t>
+  </si>
+  <si>
+    <t>10.1016/j.fluid.2021.113002</t>
   </si>
   <si>
     <t>10.1016/j.fluid.2022.113635</t>
@@ -10372,402 +10378,402 @@
     </row>
     <row r="328" spans="1:6">
       <c r="A328" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="B328" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C328">
-        <v>161.38</v>
-      </c>
-      <c r="D328">
-        <v>33.269</v>
+        <v>162.65</v>
+      </c>
+      <c r="D328" t="s">
+        <v>89</v>
       </c>
       <c r="E328" t="s">
         <v>92</v>
       </c>
       <c r="F328" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="329" spans="1:6">
       <c r="A329" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B329" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C329">
-        <v>312.3</v>
-      </c>
-      <c r="D329" t="s">
-        <v>89</v>
+        <v>439.78</v>
+      </c>
+      <c r="D329">
+        <v>9.905799999999999</v>
       </c>
       <c r="E329" t="s">
         <v>92</v>
       </c>
       <c r="F329" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B330" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="C330">
-        <v>325.94</v>
-      </c>
-      <c r="D330" t="s">
-        <v>90</v>
+        <v>265.62</v>
+      </c>
+      <c r="D330">
+        <v>9.3393</v>
       </c>
       <c r="E330" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F330" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B331" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C331">
-        <v>606.8</v>
+        <v>792.29</v>
       </c>
       <c r="D331" t="s">
         <v>89</v>
       </c>
       <c r="E331" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F331" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="B332" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C332">
-        <v>350.09</v>
-      </c>
-      <c r="D332" t="s">
-        <v>91</v>
+        <v>540.63</v>
+      </c>
+      <c r="D332">
+        <v>21.082</v>
       </c>
       <c r="E332" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F332" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B333" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C333">
-        <v>320.98</v>
-      </c>
-      <c r="D333" t="s">
-        <v>89</v>
+        <v>769.36</v>
+      </c>
+      <c r="D333">
+        <v>8</v>
       </c>
       <c r="E333" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F333" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="334" spans="1:6">
       <c r="A334" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="B334" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C334">
-        <v>248.26</v>
-      </c>
-      <c r="D334" t="s">
-        <v>89</v>
+        <v>479.55</v>
+      </c>
+      <c r="D334">
+        <v>35.957</v>
       </c>
       <c r="E334" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="F334" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="335" spans="1:6">
       <c r="A335" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="B335" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C335">
-        <v>414.07</v>
-      </c>
-      <c r="D335">
-        <v>11.043</v>
+        <v>405.45</v>
+      </c>
+      <c r="D335" t="s">
+        <v>89</v>
       </c>
       <c r="E335" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F335" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="336" spans="1:6">
       <c r="A336" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="B336" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C336">
-        <v>519.28</v>
+        <v>595.48</v>
       </c>
       <c r="D336">
-        <v>8.2819</v>
+        <v>15.874</v>
       </c>
       <c r="E336" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F336" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="337" spans="1:6">
       <c r="A337" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="B337" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C337">
-        <v>411.61</v>
-      </c>
-      <c r="D337">
-        <v>33.394</v>
+        <v>377.21</v>
+      </c>
+      <c r="D337" t="s">
+        <v>89</v>
       </c>
       <c r="E337" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F337" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="338" spans="1:6">
       <c r="A338" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="B338" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C338">
-        <v>618.67</v>
+        <v>393.05</v>
       </c>
       <c r="D338">
-        <v>31.395</v>
+        <v>15.377</v>
       </c>
       <c r="E338" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F338" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="339" spans="1:6">
       <c r="A339" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="B339" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C339">
-        <v>0</v>
+        <v>330.19</v>
       </c>
       <c r="D339" t="s">
         <v>89</v>
       </c>
       <c r="E339" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F339" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="340" spans="1:6">
       <c r="A340" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="B340" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C340">
-        <v>434.59</v>
-      </c>
-      <c r="D340" t="s">
-        <v>89</v>
+        <v>534.1799999999999</v>
+      </c>
+      <c r="D340">
+        <v>22.088</v>
       </c>
       <c r="E340" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="F340" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="341" spans="1:6">
       <c r="A341" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="B341" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C341">
-        <v>500.14</v>
-      </c>
-      <c r="D341" t="s">
-        <v>89</v>
+        <v>161.38</v>
+      </c>
+      <c r="D341">
+        <v>33.269</v>
       </c>
       <c r="E341" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="F341" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="342" spans="1:6">
       <c r="A342" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="B342" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C342">
-        <v>373.3</v>
+        <v>312.3</v>
       </c>
       <c r="D342" t="s">
         <v>89</v>
       </c>
       <c r="E342" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="F342" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="343" spans="1:6">
       <c r="A343" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="B343" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="C343">
-        <v>482.68</v>
+        <v>325.94</v>
       </c>
       <c r="D343" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E343" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F343" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B344" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="C344">
-        <v>625.98</v>
+        <v>606.8</v>
       </c>
       <c r="D344" t="s">
         <v>89</v>
       </c>
       <c r="E344" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F344" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="345" spans="1:6">
       <c r="A345" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B345" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C345">
-        <v>756.5700000000001</v>
-      </c>
-      <c r="D345">
-        <v>9.9399</v>
+        <v>350.09</v>
+      </c>
+      <c r="D345" t="s">
+        <v>91</v>
       </c>
       <c r="E345" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F345" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="346" spans="1:6">
       <c r="A346" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="B346" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="C346">
-        <v>543.64</v>
-      </c>
-      <c r="D346">
-        <v>17.749</v>
+        <v>320.98</v>
+      </c>
+      <c r="D346" t="s">
+        <v>89</v>
       </c>
       <c r="E346" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F346" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="347" spans="1:6">
       <c r="A347" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B347" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C347">
-        <v>460.79</v>
-      </c>
-      <c r="D347">
-        <v>9.2834</v>
+        <v>248.26</v>
+      </c>
+      <c r="D347" t="s">
+        <v>89</v>
       </c>
       <c r="E347" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F347" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -10775,13 +10781,13 @@
         <v>76</v>
       </c>
       <c r="B348" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C348">
-        <v>464.16</v>
+        <v>414.07</v>
       </c>
       <c r="D348">
-        <v>8</v>
+        <v>11.043</v>
       </c>
       <c r="E348" t="s">
         <v>80</v>
@@ -10795,13 +10801,13 @@
         <v>76</v>
       </c>
       <c r="B349" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C349">
-        <v>419.86</v>
-      </c>
-      <c r="D349" t="s">
-        <v>89</v>
+        <v>519.28</v>
+      </c>
+      <c r="D349">
+        <v>8.2819</v>
       </c>
       <c r="E349" t="s">
         <v>80</v>
@@ -10815,13 +10821,13 @@
         <v>76</v>
       </c>
       <c r="B350" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C350">
-        <v>261.21</v>
+        <v>411.61</v>
       </c>
       <c r="D350">
-        <v>8</v>
+        <v>33.394</v>
       </c>
       <c r="E350" t="s">
         <v>80</v>
@@ -10832,16 +10838,16 @@
     </row>
     <row r="351" spans="1:6">
       <c r="A351" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="B351" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C351">
-        <v>361.42</v>
-      </c>
-      <c r="D351" t="s">
-        <v>89</v>
+        <v>618.67</v>
+      </c>
+      <c r="D351">
+        <v>31.395</v>
       </c>
       <c r="E351" t="s">
         <v>80</v>
@@ -10852,13 +10858,13 @@
     </row>
     <row r="352" spans="1:6">
       <c r="A352" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="B352" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C352">
-        <v>424.64</v>
+        <v>0</v>
       </c>
       <c r="D352" t="s">
         <v>89</v>
@@ -10872,13 +10878,13 @@
     </row>
     <row r="353" spans="1:6">
       <c r="A353" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="B353" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="C353">
-        <v>435.86</v>
+        <v>434.59</v>
       </c>
       <c r="D353" t="s">
         <v>89</v>
@@ -10892,16 +10898,16 @@
     </row>
     <row r="354" spans="1:6">
       <c r="A354" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="B354" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C354">
-        <v>393.05</v>
-      </c>
-      <c r="D354">
-        <v>15.377</v>
+        <v>500.14</v>
+      </c>
+      <c r="D354" t="s">
+        <v>89</v>
       </c>
       <c r="E354" t="s">
         <v>80</v>
@@ -10912,16 +10918,16 @@
     </row>
     <row r="355" spans="1:6">
       <c r="A355" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="B355" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C355">
-        <v>540.63</v>
-      </c>
-      <c r="D355">
-        <v>21.082</v>
+        <v>373.3</v>
+      </c>
+      <c r="D355" t="s">
+        <v>89</v>
       </c>
       <c r="E355" t="s">
         <v>80</v>
@@ -10932,16 +10938,16 @@
     </row>
     <row r="356" spans="1:6">
       <c r="A356" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="B356" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C356">
-        <v>439.78</v>
-      </c>
-      <c r="D356">
-        <v>9.905799999999999</v>
+        <v>482.68</v>
+      </c>
+      <c r="D356" t="s">
+        <v>89</v>
       </c>
       <c r="E356" t="s">
         <v>80</v>
@@ -10952,13 +10958,13 @@
     </row>
     <row r="357" spans="1:6">
       <c r="A357" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B357" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="C357">
-        <v>0</v>
+        <v>625.98</v>
       </c>
       <c r="D357" t="s">
         <v>89</v>
@@ -10972,16 +10978,16 @@
     </row>
     <row r="358" spans="1:6">
       <c r="A358" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B358" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C358">
-        <v>345</v>
-      </c>
-      <c r="D358" t="s">
-        <v>89</v>
+        <v>756.5700000000001</v>
+      </c>
+      <c r="D358">
+        <v>9.9399</v>
       </c>
       <c r="E358" t="s">
         <v>80</v>
@@ -10992,16 +10998,16 @@
     </row>
     <row r="359" spans="1:6">
       <c r="A359" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B359" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C359">
-        <v>242.45</v>
-      </c>
-      <c r="D359" t="s">
-        <v>89</v>
+        <v>543.64</v>
+      </c>
+      <c r="D359">
+        <v>17.749</v>
       </c>
       <c r="E359" t="s">
         <v>80</v>
@@ -11012,16 +11018,16 @@
     </row>
     <row r="360" spans="1:6">
       <c r="A360" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B360" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C360">
-        <v>640.38</v>
-      </c>
-      <c r="D360" t="s">
-        <v>89</v>
+        <v>460.79</v>
+      </c>
+      <c r="D360">
+        <v>9.2834</v>
       </c>
       <c r="E360" t="s">
         <v>80</v>
@@ -11032,16 +11038,16 @@
     </row>
     <row r="361" spans="1:6">
       <c r="A361" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B361" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C361">
-        <v>409.28</v>
-      </c>
-      <c r="D361" t="s">
-        <v>89</v>
+        <v>464.16</v>
+      </c>
+      <c r="D361">
+        <v>8</v>
       </c>
       <c r="E361" t="s">
         <v>80</v>
@@ -11052,13 +11058,13 @@
     </row>
     <row r="362" spans="1:6">
       <c r="A362" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B362" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="C362">
-        <v>265.24</v>
+        <v>419.86</v>
       </c>
       <c r="D362" t="s">
         <v>89</v>
@@ -11072,16 +11078,16 @@
     </row>
     <row r="363" spans="1:6">
       <c r="A363" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B363" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C363">
-        <v>0</v>
-      </c>
-      <c r="D363" t="s">
-        <v>89</v>
+        <v>261.21</v>
+      </c>
+      <c r="D363">
+        <v>8</v>
       </c>
       <c r="E363" t="s">
         <v>80</v>
@@ -11092,13 +11098,13 @@
     </row>
     <row r="364" spans="1:6">
       <c r="A364" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B364" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C364">
-        <v>377.21</v>
+        <v>361.42</v>
       </c>
       <c r="D364" t="s">
         <v>89</v>
@@ -11112,13 +11118,13 @@
     </row>
     <row r="365" spans="1:6">
       <c r="A365" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B365" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C365">
-        <v>792.29</v>
+        <v>424.64</v>
       </c>
       <c r="D365" t="s">
         <v>89</v>
@@ -11132,13 +11138,13 @@
     </row>
     <row r="366" spans="1:6">
       <c r="A366" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B366" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="C366">
-        <v>162.65</v>
+        <v>435.86</v>
       </c>
       <c r="D366" t="s">
         <v>89</v>
@@ -11152,16 +11158,16 @@
     </row>
     <row r="367" spans="1:6">
       <c r="A367" t="s">
+        <v>44</v>
+      </c>
+      <c r="B367" t="s">
         <v>18</v>
       </c>
-      <c r="B367" t="s">
-        <v>42</v>
-      </c>
       <c r="C367">
-        <v>769.36</v>
-      </c>
-      <c r="D367">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="D367" t="s">
+        <v>89</v>
       </c>
       <c r="E367" t="s">
         <v>80</v>
@@ -11172,13 +11178,13 @@
     </row>
     <row r="368" spans="1:6">
       <c r="A368" t="s">
+        <v>44</v>
+      </c>
+      <c r="B368" t="s">
         <v>30</v>
       </c>
-      <c r="B368" t="s">
-        <v>20</v>
-      </c>
       <c r="C368">
-        <v>330.19</v>
+        <v>345</v>
       </c>
       <c r="D368" t="s">
         <v>89</v>
@@ -11192,13 +11198,13 @@
     </row>
     <row r="369" spans="1:6">
       <c r="A369" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B369" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C369">
-        <v>405.45</v>
+        <v>242.45</v>
       </c>
       <c r="D369" t="s">
         <v>89</v>
@@ -11212,16 +11218,16 @@
     </row>
     <row r="370" spans="1:6">
       <c r="A370" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B370" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C370">
-        <v>479.55</v>
-      </c>
-      <c r="D370">
-        <v>35.957</v>
+        <v>640.38</v>
+      </c>
+      <c r="D370" t="s">
+        <v>89</v>
       </c>
       <c r="E370" t="s">
         <v>80</v>
@@ -11232,16 +11238,16 @@
     </row>
     <row r="371" spans="1:6">
       <c r="A371" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B371" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C371">
-        <v>534.1799999999999</v>
-      </c>
-      <c r="D371">
-        <v>22.088</v>
+        <v>409.28</v>
+      </c>
+      <c r="D371" t="s">
+        <v>89</v>
       </c>
       <c r="E371" t="s">
         <v>80</v>
@@ -11252,16 +11258,16 @@
     </row>
     <row r="372" spans="1:6">
       <c r="A372" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B372" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="C372">
-        <v>595.48</v>
-      </c>
-      <c r="D372">
-        <v>15.874</v>
+        <v>265.24</v>
+      </c>
+      <c r="D372" t="s">
+        <v>89</v>
       </c>
       <c r="E372" t="s">
         <v>80</v>
@@ -11272,16 +11278,16 @@
     </row>
     <row r="373" spans="1:6">
       <c r="A373" t="s">
+        <v>44</v>
+      </c>
+      <c r="B373" t="s">
         <v>28</v>
       </c>
-      <c r="B373" t="s">
-        <v>21</v>
-      </c>
       <c r="C373">
-        <v>265.62</v>
-      </c>
-      <c r="D373">
-        <v>9.3393</v>
+        <v>0</v>
+      </c>
+      <c r="D373" t="s">
+        <v>89</v>
       </c>
       <c r="E373" t="s">
         <v>80</v>
@@ -11308,19 +11314,19 @@
         <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>14</v>
@@ -11334,13 +11340,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E2">
         <v>563.5599999999999</v>
@@ -11360,13 +11366,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E3">
         <v>563.5599999999999</v>
@@ -11386,13 +11392,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E4">
         <v>3961.5</v>
@@ -11412,13 +11418,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E5">
         <v>563.5599999999999</v>
@@ -11438,13 +11444,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
         <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E6">
         <v>563.5599999999999</v>
@@ -11464,13 +11470,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
         <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E7">
         <v>3961.5</v>
@@ -11490,13 +11496,13 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E8">
         <v>563.5599999999999</v>
@@ -11516,13 +11522,13 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
         <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E9">
         <v>563.5599999999999</v>
@@ -11542,13 +11548,13 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E10">
         <v>6427.9</v>
@@ -11568,13 +11574,13 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E11">
         <v>1451.8</v>
@@ -11594,13 +11600,13 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E12">
         <v>1252.6</v>
@@ -11620,13 +11626,13 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E13">
         <v>2567.7</v>
@@ -11646,13 +11652,13 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E14">
         <v>1062.1</v>
@@ -11672,13 +11678,13 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
         <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E15">
         <v>997.89</v>
@@ -11698,13 +11704,13 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E16">
         <v>3238.4</v>
@@ -11724,13 +11730,13 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
         <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E17">
         <v>1451.8</v>
@@ -11750,13 +11756,13 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
         <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E18">
         <v>1252.6</v>
@@ -11776,13 +11782,13 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
         <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E19">
         <v>2036</v>
@@ -11802,13 +11808,13 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E20">
         <v>980.2</v>
@@ -11828,13 +11834,13 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E21">
         <v>1588.7</v>
@@ -11854,13 +11860,13 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E22">
         <v>417.24</v>
@@ -11880,13 +11886,13 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E23">
         <v>1386.8</v>
@@ -11906,13 +11912,13 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E24">
         <v>1492.9</v>
@@ -11932,13 +11938,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E25">
         <v>1177.4</v>
@@ -11958,13 +11964,13 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E26">
         <v>1844.8</v>
@@ -11984,13 +11990,13 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E27">
         <v>686.9299999999999</v>
@@ -12010,13 +12016,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E28">
         <v>1323.1</v>
@@ -12036,13 +12042,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
         <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E29">
         <v>1186.9</v>
@@ -12062,13 +12068,13 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C30" t="s">
         <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E30">
         <v>2162.2</v>
@@ -12088,13 +12094,13 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C31" t="s">
         <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E31">
         <v>1053.1</v>
@@ -12114,13 +12120,13 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
         <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E32">
         <v>2732.9</v>
@@ -12140,13 +12146,13 @@
         <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
         <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E33">
         <v>2208.9</v>
@@ -12166,13 +12172,13 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
         <v>29</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E34">
         <v>1245.8</v>
@@ -12192,13 +12198,13 @@
         <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
         <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E35">
         <v>1920.1</v>
@@ -12218,13 +12224,13 @@
         <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
         <v>69</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E36">
         <v>1772.3</v>
@@ -12244,13 +12250,13 @@
         <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
         <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E37">
         <v>1985.4</v>
@@ -12270,13 +12276,13 @@
         <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C38" t="s">
         <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E38">
         <v>1993.5</v>
@@ -12296,13 +12302,13 @@
         <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
         <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E39">
         <v>1993.5</v>
@@ -12322,13 +12328,13 @@
         <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
         <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E40">
         <v>1398.1</v>
@@ -12348,13 +12354,13 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C41" t="s">
         <v>33</v>
       </c>
       <c r="D41" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E41">
         <v>500</v>
@@ -12374,13 +12380,13 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C42" t="s">
         <v>33</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E42">
         <v>2225.6</v>
@@ -12400,13 +12406,13 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C43" t="s">
         <v>34</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E43">
         <v>621.6799999999999</v>
@@ -12426,13 +12432,13 @@
         <v>29</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C44" t="s">
         <v>34</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E44">
         <v>2153.2</v>
@@ -12452,13 +12458,13 @@
         <v>29</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C45" t="s">
         <v>35</v>
       </c>
       <c r="D45" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E45">
         <v>2289.1</v>
@@ -12478,13 +12484,13 @@
         <v>29</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C46" t="s">
         <v>35</v>
       </c>
       <c r="D46" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E46">
         <v>2140.9</v>
@@ -12504,13 +12510,13 @@
         <v>29</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C47" t="s">
         <v>36</v>
       </c>
       <c r="D47" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E47">
         <v>1988.3</v>
@@ -12530,13 +12536,13 @@
         <v>29</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C48" t="s">
         <v>36</v>
       </c>
       <c r="D48" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E48">
         <v>1460</v>
@@ -12556,13 +12562,13 @@
         <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s">
         <v>37</v>
       </c>
       <c r="D49" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E49">
         <v>1064.5</v>
@@ -12582,13 +12588,13 @@
         <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C50" t="s">
         <v>37</v>
       </c>
       <c r="D50" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E50">
         <v>3890.4</v>
@@ -12608,13 +12614,13 @@
         <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C51" t="s">
         <v>38</v>
       </c>
       <c r="D51" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E51">
         <v>2783.7</v>
@@ -12634,13 +12640,13 @@
         <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C52" t="s">
         <v>39</v>
       </c>
       <c r="D52" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E52">
         <v>1701</v>
@@ -12660,13 +12666,13 @@
         <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C53" t="s">
         <v>39</v>
       </c>
       <c r="D53" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E53">
         <v>2838.4</v>
@@ -12686,13 +12692,13 @@
         <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C54" t="s">
         <v>40</v>
       </c>
       <c r="D54" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E54">
         <v>5203.7</v>
@@ -12712,13 +12718,13 @@
         <v>29</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C55" t="s">
         <v>42</v>
       </c>
       <c r="D55" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E55">
         <v>563.5599999999999</v>
@@ -12738,13 +12744,13 @@
         <v>29</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C56" t="s">
         <v>43</v>
       </c>
       <c r="D56" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E56">
         <v>2500</v>
@@ -12764,13 +12770,13 @@
         <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C57" t="s">
         <v>43</v>
       </c>
       <c r="D57" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E57">
         <v>1798.2</v>
@@ -12790,13 +12796,13 @@
         <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C58" t="s">
         <v>43</v>
       </c>
       <c r="D58" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E58">
         <v>563.5599999999999</v>
@@ -12816,13 +12822,13 @@
         <v>29</v>
       </c>
       <c r="B59" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C59" t="s">
         <v>45</v>
       </c>
       <c r="D59" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E59">
         <v>5903.8</v>
@@ -12842,13 +12848,13 @@
         <v>29</v>
       </c>
       <c r="B60" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C60" t="s">
         <v>45</v>
       </c>
       <c r="D60" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E60">
         <v>5477.7</v>
@@ -12868,13 +12874,13 @@
         <v>29</v>
       </c>
       <c r="B61" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C61" t="s">
         <v>46</v>
       </c>
       <c r="D61" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E61">
         <v>4115.4</v>
@@ -12894,13 +12900,13 @@
         <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C62" t="s">
         <v>47</v>
       </c>
       <c r="D62" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E62">
         <v>1985.4</v>
@@ -12920,13 +12926,13 @@
         <v>29</v>
       </c>
       <c r="B63" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C63" t="s">
         <v>56</v>
       </c>
       <c r="D63" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E63">
         <v>2783.7</v>
@@ -12946,13 +12952,13 @@
         <v>29</v>
       </c>
       <c r="B64" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C64" t="s">
         <v>57</v>
       </c>
       <c r="D64" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E64">
         <v>1492</v>
@@ -12972,13 +12978,13 @@
         <v>29</v>
       </c>
       <c r="B65" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C65" t="s">
         <v>62</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E65">
         <v>802.21</v>
@@ -12998,13 +13004,13 @@
         <v>29</v>
       </c>
       <c r="B66" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C66" t="s">
         <v>65</v>
       </c>
       <c r="D66" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>2900</v>
@@ -13024,13 +13030,13 @@
         <v>29</v>
       </c>
       <c r="B67" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C67" t="s">
         <v>65</v>
       </c>
       <c r="D67" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>1606.6</v>
@@ -13050,13 +13056,13 @@
         <v>29</v>
       </c>
       <c r="B68" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C68" t="s">
         <v>66</v>
       </c>
       <c r="D68" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E68">
         <v>2350</v>
@@ -13076,13 +13082,13 @@
         <v>29</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C69" t="s">
         <v>67</v>
       </c>
       <c r="D69" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E69">
         <v>1398.1</v>
@@ -13102,13 +13108,13 @@
         <v>29</v>
       </c>
       <c r="B70" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C70" t="s">
         <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E70">
         <v>882.05</v>
@@ -13128,13 +13134,13 @@
         <v>29</v>
       </c>
       <c r="B71" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C71" t="s">
         <v>69</v>
       </c>
       <c r="D71" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E71">
         <v>882.05</v>
@@ -13154,13 +13160,13 @@
         <v>29</v>
       </c>
       <c r="B72" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C72" t="s">
         <v>69</v>
       </c>
       <c r="D72" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E72">
         <v>5192.5</v>
@@ -13180,13 +13186,13 @@
         <v>30</v>
       </c>
       <c r="B73" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C73" t="s">
         <v>30</v>
       </c>
       <c r="D73" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E73">
         <v>2062.1</v>
@@ -13206,13 +13212,13 @@
         <v>30</v>
       </c>
       <c r="B74" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C74" t="s">
         <v>69</v>
       </c>
       <c r="D74" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E74">
         <v>1400.7</v>
@@ -13232,13 +13238,13 @@
         <v>30</v>
       </c>
       <c r="B75" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C75" t="s">
         <v>69</v>
       </c>
       <c r="D75" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E75">
         <v>871.46</v>
@@ -13258,13 +13264,13 @@
         <v>30</v>
       </c>
       <c r="B76" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C76" t="s">
         <v>70</v>
       </c>
       <c r="D76" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E76">
         <v>2346</v>
@@ -13284,13 +13290,13 @@
         <v>30</v>
       </c>
       <c r="B77" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C77" t="s">
         <v>70</v>
       </c>
       <c r="D77" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E77">
         <v>2346</v>
@@ -13310,13 +13316,13 @@
         <v>32</v>
       </c>
       <c r="B78" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C78" t="s">
         <v>36</v>
       </c>
       <c r="D78" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E78">
         <v>4023.9</v>
@@ -13336,13 +13342,13 @@
         <v>32</v>
       </c>
       <c r="B79" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C79" t="s">
         <v>36</v>
       </c>
       <c r="D79" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E79">
         <v>5981.4</v>
@@ -13362,13 +13368,13 @@
         <v>32</v>
       </c>
       <c r="B80" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C80" t="s">
         <v>37</v>
       </c>
       <c r="D80" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E80">
         <v>6012.1</v>
@@ -13388,13 +13394,13 @@
         <v>32</v>
       </c>
       <c r="B81" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C81" t="s">
         <v>37</v>
       </c>
       <c r="D81" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E81">
         <v>7420.5</v>
@@ -13414,13 +13420,13 @@
         <v>32</v>
       </c>
       <c r="B82" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C82" t="s">
         <v>38</v>
       </c>
       <c r="D82" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E82">
         <v>4270.8</v>
@@ -13440,13 +13446,13 @@
         <v>32</v>
       </c>
       <c r="B83" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C83" t="s">
         <v>38</v>
       </c>
       <c r="D83" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E83">
         <v>7439.8</v>
@@ -13466,13 +13472,13 @@
         <v>32</v>
       </c>
       <c r="B84" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C84" t="s">
         <v>39</v>
       </c>
       <c r="D84" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E84">
         <v>5696.6</v>
@@ -13492,13 +13498,13 @@
         <v>32</v>
       </c>
       <c r="B85" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C85" t="s">
         <v>39</v>
       </c>
       <c r="D85" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E85">
         <v>6017.9</v>
@@ -13518,13 +13524,13 @@
         <v>32</v>
       </c>
       <c r="B86" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C86" t="s">
         <v>40</v>
       </c>
       <c r="D86" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E86">
         <v>3388.6</v>
@@ -13544,13 +13550,13 @@
         <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C87" t="s">
         <v>40</v>
       </c>
       <c r="D87" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E87">
         <v>3004.9</v>
@@ -13570,13 +13576,13 @@
         <v>32</v>
       </c>
       <c r="B88" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C88" t="s">
         <v>45</v>
       </c>
       <c r="D88" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E88">
         <v>2246</v>
@@ -13596,13 +13602,13 @@
         <v>32</v>
       </c>
       <c r="B89" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C89" t="s">
         <v>45</v>
       </c>
       <c r="D89" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E89">
         <v>3870.8</v>
@@ -13622,13 +13628,13 @@
         <v>33</v>
       </c>
       <c r="B90" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C90" t="s">
         <v>33</v>
       </c>
       <c r="D90" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E90">
         <v>2161</v>
@@ -13648,13 +13654,13 @@
         <v>33</v>
       </c>
       <c r="B91" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C91" t="s">
         <v>36</v>
       </c>
       <c r="D91" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E91">
         <v>1282.7</v>
@@ -13674,13 +13680,13 @@
         <v>33</v>
       </c>
       <c r="B92" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C92" t="s">
         <v>36</v>
       </c>
       <c r="D92" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E92">
         <v>1354</v>
@@ -13700,13 +13706,13 @@
         <v>33</v>
       </c>
       <c r="B93" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C93" t="s">
         <v>37</v>
       </c>
       <c r="D93" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E93">
         <v>861.12</v>
@@ -13726,13 +13732,13 @@
         <v>33</v>
       </c>
       <c r="B94" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C94" t="s">
         <v>37</v>
       </c>
       <c r="D94" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E94">
         <v>1477.7</v>
@@ -13752,13 +13758,13 @@
         <v>33</v>
       </c>
       <c r="B95" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C95" t="s">
         <v>38</v>
       </c>
       <c r="D95" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E95">
         <v>1357.2</v>
@@ -13778,13 +13784,13 @@
         <v>34</v>
       </c>
       <c r="B96" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C96" t="s">
         <v>34</v>
       </c>
       <c r="D96" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E96">
         <v>2097.9</v>
@@ -13804,13 +13810,13 @@
         <v>34</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C97" t="s">
         <v>35</v>
       </c>
       <c r="D97" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E97">
         <v>1464.1</v>
@@ -13830,13 +13836,13 @@
         <v>34</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C98" t="s">
         <v>35</v>
       </c>
       <c r="D98" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E98">
         <v>2500</v>
@@ -13856,13 +13862,13 @@
         <v>34</v>
       </c>
       <c r="B99" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C99" t="s">
         <v>36</v>
       </c>
       <c r="D99" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E99">
         <v>629.88</v>
@@ -13882,13 +13888,13 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C100" t="s">
         <v>36</v>
       </c>
       <c r="D100" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E100">
         <v>2403.8</v>
@@ -13908,13 +13914,13 @@
         <v>34</v>
       </c>
       <c r="B101" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C101" t="s">
         <v>37</v>
       </c>
       <c r="D101" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E101">
         <v>341.13</v>
@@ -13934,13 +13940,13 @@
         <v>34</v>
       </c>
       <c r="B102" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C102" t="s">
         <v>37</v>
       </c>
       <c r="D102" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E102">
         <v>1390.1</v>
@@ -13960,13 +13966,13 @@
         <v>34</v>
       </c>
       <c r="B103" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C103" t="s">
         <v>38</v>
       </c>
       <c r="D103" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E103">
         <v>1247.2</v>
@@ -13986,13 +13992,13 @@
         <v>34</v>
       </c>
       <c r="B104" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C104" t="s">
         <v>43</v>
       </c>
       <c r="D104" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E104">
         <v>2182.7</v>
@@ -14012,13 +14018,13 @@
         <v>34</v>
       </c>
       <c r="B105" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C105" t="s">
         <v>43</v>
       </c>
       <c r="D105" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E105">
         <v>250.03</v>
@@ -14038,13 +14044,13 @@
         <v>34</v>
       </c>
       <c r="B106" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C106" t="s">
         <v>56</v>
       </c>
       <c r="D106" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E106">
         <v>1247.2</v>
@@ -14064,13 +14070,13 @@
         <v>34</v>
       </c>
       <c r="B107" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C107" t="s">
         <v>69</v>
       </c>
       <c r="D107" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E107">
         <v>1284.9</v>
@@ -14090,13 +14096,13 @@
         <v>34</v>
       </c>
       <c r="B108" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C108" t="s">
         <v>69</v>
       </c>
       <c r="D108" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E108">
         <v>3889.3</v>
@@ -14116,13 +14122,13 @@
         <v>34</v>
       </c>
       <c r="B109" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C109" t="s">
         <v>69</v>
       </c>
       <c r="D109" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E109">
         <v>1284.9</v>
@@ -14142,13 +14148,13 @@
         <v>35</v>
       </c>
       <c r="B110" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C110" t="s">
         <v>35</v>
       </c>
       <c r="D110" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E110">
         <v>2480.6</v>
@@ -14168,13 +14174,13 @@
         <v>35</v>
       </c>
       <c r="B111" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C111" t="s">
         <v>69</v>
       </c>
       <c r="D111" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E111">
         <v>2278.5</v>
@@ -14194,13 +14200,13 @@
         <v>35</v>
       </c>
       <c r="B112" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C112" t="s">
         <v>69</v>
       </c>
       <c r="D112" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E112">
         <v>2278.5</v>
@@ -14220,13 +14226,13 @@
         <v>35</v>
       </c>
       <c r="B113" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C113" t="s">
         <v>69</v>
       </c>
       <c r="D113" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E113">
         <v>2278.5</v>
@@ -14246,13 +14252,13 @@
         <v>36</v>
       </c>
       <c r="B114" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C114" t="s">
         <v>36</v>
       </c>
       <c r="D114" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E114">
         <v>1070.8</v>
@@ -14272,13 +14278,13 @@
         <v>36</v>
       </c>
       <c r="B115" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C115" t="s">
         <v>37</v>
       </c>
       <c r="D115" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E115">
         <v>1639.9</v>
@@ -14298,13 +14304,13 @@
         <v>36</v>
       </c>
       <c r="B116" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C116" t="s">
         <v>37</v>
       </c>
       <c r="D116" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E116">
         <v>1682.1</v>
@@ -14324,13 +14330,13 @@
         <v>37</v>
       </c>
       <c r="B117" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C117" t="s">
         <v>37</v>
       </c>
       <c r="D117" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E117">
         <v>1370.3</v>
@@ -14350,13 +14356,13 @@
         <v>39</v>
       </c>
       <c r="B118" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C118" t="s">
         <v>39</v>
       </c>
       <c r="D118" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E118">
         <v>1511.6</v>
@@ -14376,13 +14382,13 @@
         <v>39</v>
       </c>
       <c r="B119" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C119" t="s">
         <v>40</v>
       </c>
       <c r="D119" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E119">
         <v>901.35</v>
@@ -14402,13 +14408,13 @@
         <v>42</v>
       </c>
       <c r="B120" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C120" t="s">
         <v>69</v>
       </c>
       <c r="D120" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E120">
         <v>3961.5</v>
@@ -14428,13 +14434,13 @@
         <v>43</v>
       </c>
       <c r="B121" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C121" t="s">
         <v>43</v>
       </c>
       <c r="D121" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E121">
         <v>1538.1</v>
@@ -14454,13 +14460,13 @@
         <v>45</v>
       </c>
       <c r="B122" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C122" t="s">
         <v>45</v>
       </c>
       <c r="D122" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E122">
         <v>1293.5</v>
@@ -14480,13 +14486,13 @@
         <v>47</v>
       </c>
       <c r="B123" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C123" t="s">
         <v>57</v>
       </c>
       <c r="D123" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E123">
         <v>1492</v>
@@ -14506,13 +14512,13 @@
         <v>47</v>
       </c>
       <c r="B124" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C124" t="s">
         <v>62</v>
       </c>
       <c r="D124" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E124">
         <v>802.21</v>
@@ -14532,13 +14538,13 @@
         <v>47</v>
       </c>
       <c r="B125" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C125" t="s">
         <v>64</v>
       </c>
       <c r="D125" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E125">
         <v>2266</v>
@@ -14558,13 +14564,13 @@
         <v>47</v>
       </c>
       <c r="B126" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C126" t="s">
         <v>66</v>
       </c>
       <c r="D126" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E126">
         <v>2900</v>
@@ -14584,13 +14590,13 @@
         <v>47</v>
       </c>
       <c r="B127" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C127" t="s">
         <v>67</v>
       </c>
       <c r="D127" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E127">
         <v>1398.1</v>
@@ -14610,13 +14616,13 @@
         <v>65</v>
       </c>
       <c r="B128" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C128" t="s">
         <v>65</v>
       </c>
       <c r="D128" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E128">
         <v>1300</v>
@@ -14636,13 +14642,13 @@
         <v>69</v>
       </c>
       <c r="B129" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C129" t="s">
         <v>69</v>
       </c>
       <c r="D129" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E129">
         <v>4745.7</v>
@@ -14662,13 +14668,13 @@
         <v>69</v>
       </c>
       <c r="B130" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C130" t="s">
         <v>70</v>
       </c>
       <c r="D130" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E130">
         <v>2424.1</v>
@@ -14688,13 +14694,13 @@
         <v>69</v>
       </c>
       <c r="B131" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C131" t="s">
         <v>71</v>
       </c>
       <c r="D131" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E131">
         <v>2828.1</v>
@@ -14714,13 +14720,13 @@
         <v>46</v>
       </c>
       <c r="B132" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C132" t="s">
         <v>32</v>
       </c>
       <c r="D132" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E132">
         <v>4114.9</v>
@@ -14729,10 +14735,10 @@
         <v>4686.4</v>
       </c>
       <c r="G132" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H132" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -14740,13 +14746,13 @@
         <v>46</v>
       </c>
       <c r="B133" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C133" t="s">
         <v>32</v>
       </c>
       <c r="D133" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E133">
         <v>1013.9</v>
@@ -14755,10 +14761,10 @@
         <v>1551.7</v>
       </c>
       <c r="G133" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H133" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -14766,13 +14772,13 @@
         <v>74</v>
       </c>
       <c r="B134" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C134" t="s">
         <v>34</v>
       </c>
       <c r="D134" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E134">
         <v>1472.5</v>
@@ -14792,13 +14798,13 @@
         <v>74</v>
       </c>
       <c r="B135" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C135" t="s">
         <v>29</v>
       </c>
       <c r="D135" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E135">
         <v>2193.2</v>
@@ -14818,13 +14824,13 @@
         <v>30</v>
       </c>
       <c r="B136" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C136" t="s">
         <v>75</v>
       </c>
       <c r="D136" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E136">
         <v>4594.9</v>
@@ -14844,13 +14850,13 @@
         <v>30</v>
       </c>
       <c r="B137" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C137" t="s">
         <v>75</v>
       </c>
       <c r="D137" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E137">
         <v>4594.9</v>
@@ -14870,13 +14876,13 @@
         <v>30</v>
       </c>
       <c r="B138" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C138" t="s">
         <v>75</v>
       </c>
       <c r="D138" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E138">
         <v>5562.3</v>
@@ -14896,13 +14902,13 @@
         <v>75</v>
       </c>
       <c r="B139" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C139" t="s">
         <v>75</v>
       </c>
       <c r="D139" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E139">
         <v>500</v>
@@ -14922,13 +14928,13 @@
         <v>75</v>
       </c>
       <c r="B140" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C140" t="s">
         <v>29</v>
       </c>
       <c r="D140" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E140">
         <v>2572.7</v>
@@ -14948,13 +14954,13 @@
         <v>75</v>
       </c>
       <c r="B141" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C141" t="s">
         <v>29</v>
       </c>
       <c r="D141" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E141">
         <v>2572.7</v>
@@ -14974,13 +14980,13 @@
         <v>75</v>
       </c>
       <c r="B142" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C142" t="s">
         <v>29</v>
       </c>
       <c r="D142" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E142">
         <v>2445</v>
@@ -15000,13 +15006,13 @@
         <v>76</v>
       </c>
       <c r="B143" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C143" t="s">
         <v>30</v>
       </c>
       <c r="D143" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E143">
         <v>1267.6</v>
@@ -15026,13 +15032,13 @@
         <v>76</v>
       </c>
       <c r="B144" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C144" t="s">
         <v>34</v>
       </c>
       <c r="D144" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E144">
         <v>1496.8</v>
@@ -15052,13 +15058,13 @@
         <v>76</v>
       </c>
       <c r="B145" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C145" t="s">
         <v>35</v>
       </c>
       <c r="D145" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E145">
         <v>1674.2</v>
@@ -15078,13 +15084,13 @@
         <v>76</v>
       </c>
       <c r="B146" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C146" t="s">
         <v>29</v>
       </c>
       <c r="D146" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E146">
         <v>1385.6</v>
@@ -15120,7 +15126,7 @@
         <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>87</v>
@@ -15143,7 +15149,7 @@
         <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D2">
         <v>509.37</v>
@@ -15166,7 +15172,7 @@
         <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D3">
         <v>780.24</v>
@@ -15189,7 +15195,7 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D4">
         <v>358.02</v>
@@ -15212,7 +15218,7 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D5">
         <v>339.89</v>
@@ -15235,7 +15241,7 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D6">
         <v>134.58</v>
@@ -15258,7 +15264,7 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D7">
         <v>90.008</v>
@@ -15281,7 +15287,7 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D8">
         <v>1569.8</v>
@@ -15304,7 +15310,7 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D9">
         <v>241.18</v>
@@ -15327,7 +15333,7 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D10">
         <v>488.28</v>
@@ -15336,10 +15342,10 @@
         <v>49.901</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -15360,22 +15366,22 @@
         <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>14</v>
@@ -15389,16 +15395,16 @@
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F2">
         <v>600</v>
@@ -15418,16 +15424,16 @@
         <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F3">
         <v>2000.6</v>
@@ -15447,16 +15453,16 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F4">
         <v>1364.4</v>
@@ -15476,16 +15482,16 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F5">
         <v>1877.5</v>
@@ -15505,16 +15511,16 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F6">
         <v>3313</v>
@@ -15534,16 +15540,16 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7">
         <v>4943.6</v>
@@ -15563,16 +15569,16 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F8">
         <v>629.88</v>
@@ -15592,16 +15598,16 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F9">
         <v>2403.8</v>
@@ -15621,16 +15627,16 @@
         <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F10">
         <v>7020.9</v>
@@ -15650,16 +15656,16 @@
         <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F11">
         <v>2490.6</v>
@@ -15679,16 +15685,16 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F12">
         <v>1390.1</v>
@@ -15708,16 +15714,16 @@
         <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
         <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F13">
         <v>341.13</v>
@@ -15737,16 +15743,16 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F14">
         <v>2876.5</v>
@@ -15766,16 +15772,16 @@
         <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F15">
         <v>5500.7</v>
@@ -15795,16 +15801,16 @@
         <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F16">
         <v>3437.4</v>
@@ -15824,16 +15830,16 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
         <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F17">
         <v>1210.9</v>
@@ -15853,16 +15859,16 @@
         <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
         <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F18">
         <v>305.8</v>
@@ -15871,10 +15877,10 @@
         <v>0.011099</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -15882,16 +15888,16 @@
         <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F19">
         <v>1756.2</v>
@@ -15900,10 +15906,10 @@
         <v>24.26</v>
       </c>
       <c r="H19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/sgtpy/database/saftgamma_database.xlsx
+++ b/sgtpy/database/saftgamma_database.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3069" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3069" uniqueCount="116">
   <si>
     <t>groups</t>
   </si>
@@ -327,6 +327,12 @@
   </si>
   <si>
     <t>e2</t>
+  </si>
+  <si>
+    <t>felipe2021</t>
+  </si>
+  <si>
+    <t>10.1002/aic.17194</t>
   </si>
   <si>
     <t>environment</t>
@@ -12591,16 +12597,16 @@
         <v>101</v>
       </c>
       <c r="C50" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D50" t="s">
         <v>100</v>
       </c>
       <c r="E50">
-        <v>3890.4</v>
+        <v>2783.7</v>
       </c>
       <c r="F50">
-        <v>928</v>
+        <v>15.536</v>
       </c>
       <c r="G50" t="s">
         <v>77</v>
@@ -12614,19 +12620,19 @@
         <v>29</v>
       </c>
       <c r="B51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" t="s">
         <v>101</v>
       </c>
-      <c r="C51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D51" t="s">
-        <v>100</v>
-      </c>
       <c r="E51">
-        <v>2783.7</v>
+        <v>1701</v>
       </c>
       <c r="F51">
-        <v>15.536</v>
+        <v>1.6177</v>
       </c>
       <c r="G51" t="s">
         <v>77</v>
@@ -12640,19 +12646,19 @@
         <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
         <v>39</v>
       </c>
       <c r="D52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E52">
-        <v>1701</v>
+        <v>2838.4</v>
       </c>
       <c r="F52">
-        <v>1.6177</v>
+        <v>37.395</v>
       </c>
       <c r="G52" t="s">
         <v>77</v>
@@ -12669,16 +12675,16 @@
         <v>101</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D53" t="s">
         <v>100</v>
       </c>
       <c r="E53">
-        <v>2838.4</v>
+        <v>5203.7</v>
       </c>
       <c r="F53">
-        <v>37.395</v>
+        <v>0.0374</v>
       </c>
       <c r="G53" t="s">
         <v>77</v>
@@ -12695,16 +12701,16 @@
         <v>101</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D54" t="s">
         <v>100</v>
       </c>
       <c r="E54">
-        <v>5203.7</v>
+        <v>563.5599999999999</v>
       </c>
       <c r="F54">
-        <v>0.0374</v>
+        <v>339.61</v>
       </c>
       <c r="G54" t="s">
         <v>77</v>
@@ -12718,19 +12724,19 @@
         <v>29</v>
       </c>
       <c r="B55" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" t="s">
         <v>101</v>
       </c>
-      <c r="C55" t="s">
-        <v>42</v>
-      </c>
-      <c r="D55" t="s">
-        <v>100</v>
-      </c>
       <c r="E55">
-        <v>563.5599999999999</v>
+        <v>2500</v>
       </c>
       <c r="F55">
-        <v>339.61</v>
+        <v>52.47</v>
       </c>
       <c r="G55" t="s">
         <v>77</v>
@@ -12744,19 +12750,19 @@
         <v>29</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C56" t="s">
         <v>43</v>
       </c>
       <c r="D56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E56">
-        <v>2500</v>
+        <v>1798.2</v>
       </c>
       <c r="F56">
-        <v>52.47</v>
+        <v>103.92</v>
       </c>
       <c r="G56" t="s">
         <v>77</v>
@@ -12776,13 +12782,13 @@
         <v>43</v>
       </c>
       <c r="D57" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E57">
-        <v>1798.2</v>
+        <v>563.5599999999999</v>
       </c>
       <c r="F57">
-        <v>103.92</v>
+        <v>339.61</v>
       </c>
       <c r="G57" t="s">
         <v>77</v>
@@ -12799,16 +12805,16 @@
         <v>101</v>
       </c>
       <c r="C58" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D58" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E58">
-        <v>563.5599999999999</v>
+        <v>5903.8</v>
       </c>
       <c r="F58">
-        <v>339.61</v>
+        <v>0.002075</v>
       </c>
       <c r="G58" t="s">
         <v>77</v>
@@ -12822,19 +12828,19 @@
         <v>29</v>
       </c>
       <c r="B59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C59" t="s">
         <v>45</v>
       </c>
       <c r="D59" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E59">
-        <v>5903.8</v>
+        <v>5477.7</v>
       </c>
       <c r="F59">
-        <v>0.002075</v>
+        <v>0.009582</v>
       </c>
       <c r="G59" t="s">
         <v>77</v>
@@ -12848,19 +12854,19 @@
         <v>29</v>
       </c>
       <c r="B60" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E60">
-        <v>5477.7</v>
+        <v>4115.4</v>
       </c>
       <c r="F60">
-        <v>0.009582</v>
+        <v>0.2307</v>
       </c>
       <c r="G60" t="s">
         <v>77</v>
@@ -12874,19 +12880,19 @@
         <v>29</v>
       </c>
       <c r="B61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" t="s">
         <v>101</v>
       </c>
-      <c r="C61" t="s">
-        <v>46</v>
-      </c>
-      <c r="D61" t="s">
-        <v>100</v>
-      </c>
       <c r="E61">
-        <v>4115.4</v>
+        <v>1985.4</v>
       </c>
       <c r="F61">
-        <v>0.2307</v>
+        <v>101.69</v>
       </c>
       <c r="G61" t="s">
         <v>77</v>
@@ -12903,16 +12909,16 @@
         <v>100</v>
       </c>
       <c r="C62" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D62" t="s">
         <v>101</v>
       </c>
       <c r="E62">
-        <v>1985.4</v>
+        <v>2783.7</v>
       </c>
       <c r="F62">
-        <v>101.69</v>
+        <v>15.536</v>
       </c>
       <c r="G62" t="s">
         <v>77</v>
@@ -12926,19 +12932,19 @@
         <v>29</v>
       </c>
       <c r="B63" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E63">
-        <v>2783.7</v>
+        <v>1492</v>
       </c>
       <c r="F63">
-        <v>15.536</v>
+        <v>76.411</v>
       </c>
       <c r="G63" t="s">
         <v>77</v>
@@ -12955,16 +12961,16 @@
         <v>101</v>
       </c>
       <c r="C64" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D64" t="s">
         <v>100</v>
       </c>
       <c r="E64">
-        <v>1492</v>
+        <v>802.21</v>
       </c>
       <c r="F64">
-        <v>76.411</v>
+        <v>52.555</v>
       </c>
       <c r="G64" t="s">
         <v>77</v>
@@ -12981,16 +12987,16 @@
         <v>101</v>
       </c>
       <c r="C65" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D65" t="s">
         <v>100</v>
       </c>
       <c r="E65">
-        <v>802.21</v>
+        <v>2900</v>
       </c>
       <c r="F65">
-        <v>52.555</v>
+        <v>38.401</v>
       </c>
       <c r="G65" t="s">
         <v>77</v>
@@ -13004,16 +13010,16 @@
         <v>29</v>
       </c>
       <c r="B66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C66" t="s">
         <v>65</v>
       </c>
       <c r="D66" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E66">
-        <v>2900</v>
+        <v>1606.6</v>
       </c>
       <c r="F66">
         <v>38.401</v>
@@ -13030,19 +13036,19 @@
         <v>29</v>
       </c>
       <c r="B67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E67">
-        <v>1606.6</v>
+        <v>2350</v>
       </c>
       <c r="F67">
-        <v>38.401</v>
+        <v>97.014</v>
       </c>
       <c r="G67" t="s">
         <v>77</v>
@@ -13059,16 +13065,16 @@
         <v>101</v>
       </c>
       <c r="C68" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D68" t="s">
         <v>100</v>
       </c>
       <c r="E68">
-        <v>2350</v>
+        <v>1398.1</v>
       </c>
       <c r="F68">
-        <v>97.014</v>
+        <v>91.419</v>
       </c>
       <c r="G68" t="s">
         <v>77</v>
@@ -13085,16 +13091,16 @@
         <v>101</v>
       </c>
       <c r="C69" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D69" t="s">
         <v>100</v>
       </c>
       <c r="E69">
-        <v>1398.1</v>
+        <v>882.05</v>
       </c>
       <c r="F69">
-        <v>91.419</v>
+        <v>984.34</v>
       </c>
       <c r="G69" t="s">
         <v>77</v>
@@ -13114,7 +13120,7 @@
         <v>69</v>
       </c>
       <c r="D70" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E70">
         <v>882.05</v>
@@ -13134,19 +13140,19 @@
         <v>29</v>
       </c>
       <c r="B71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C71" t="s">
         <v>69</v>
       </c>
       <c r="D71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E71">
-        <v>882.05</v>
+        <v>5192.5</v>
       </c>
       <c r="F71">
-        <v>984.34</v>
+        <v>0.011186</v>
       </c>
       <c r="G71" t="s">
         <v>77</v>
@@ -13157,22 +13163,22 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B72" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C72" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="D72" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E72">
-        <v>5192.5</v>
+        <v>2062.1</v>
       </c>
       <c r="F72">
-        <v>0.011186</v>
+        <v>106.57</v>
       </c>
       <c r="G72" t="s">
         <v>77</v>
@@ -13189,16 +13195,16 @@
         <v>101</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="D73" t="s">
         <v>100</v>
       </c>
       <c r="E73">
-        <v>2062.1</v>
+        <v>1400.7</v>
       </c>
       <c r="F73">
-        <v>106.57</v>
+        <v>495.32</v>
       </c>
       <c r="G73" t="s">
         <v>77</v>
@@ -13212,19 +13218,19 @@
         <v>30</v>
       </c>
       <c r="B74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C74" t="s">
         <v>69</v>
       </c>
       <c r="D74" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E74">
-        <v>1400.7</v>
+        <v>871.46</v>
       </c>
       <c r="F74">
-        <v>495.32</v>
+        <v>0.25605</v>
       </c>
       <c r="G74" t="s">
         <v>77</v>
@@ -13238,19 +13244,19 @@
         <v>30</v>
       </c>
       <c r="B75" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C75" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D75" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E75">
-        <v>871.46</v>
+        <v>2346</v>
       </c>
       <c r="F75">
-        <v>0.25605</v>
+        <v>3.1536</v>
       </c>
       <c r="G75" t="s">
         <v>77</v>
@@ -13264,13 +13270,13 @@
         <v>30</v>
       </c>
       <c r="B76" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C76" t="s">
         <v>70</v>
       </c>
       <c r="D76" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E76">
         <v>2346</v>
@@ -13287,22 +13293,22 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B77" t="s">
         <v>100</v>
       </c>
       <c r="C77" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="D77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E77">
-        <v>2346</v>
+        <v>4023.9</v>
       </c>
       <c r="F77">
-        <v>3.1536</v>
+        <v>120.35</v>
       </c>
       <c r="G77" t="s">
         <v>77</v>
@@ -13316,7 +13322,7 @@
         <v>32</v>
       </c>
       <c r="B78" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C78" t="s">
         <v>36</v>
@@ -13325,10 +13331,10 @@
         <v>100</v>
       </c>
       <c r="E78">
-        <v>4023.9</v>
+        <v>5981.4</v>
       </c>
       <c r="F78">
-        <v>120.35</v>
+        <v>1.0036</v>
       </c>
       <c r="G78" t="s">
         <v>77</v>
@@ -13342,19 +13348,19 @@
         <v>32</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C79" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D79" t="s">
         <v>100</v>
       </c>
       <c r="E79">
-        <v>5981.4</v>
+        <v>6012.1</v>
       </c>
       <c r="F79">
-        <v>1.0036</v>
+        <v>0.14157</v>
       </c>
       <c r="G79" t="s">
         <v>77</v>
@@ -13368,7 +13374,7 @@
         <v>32</v>
       </c>
       <c r="B80" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C80" t="s">
         <v>37</v>
@@ -13377,10 +13383,10 @@
         <v>100</v>
       </c>
       <c r="E80">
-        <v>6012.1</v>
+        <v>7420.5</v>
       </c>
       <c r="F80">
-        <v>0.14157</v>
+        <v>0.43534</v>
       </c>
       <c r="G80" t="s">
         <v>77</v>
@@ -13394,19 +13400,19 @@
         <v>32</v>
       </c>
       <c r="B81" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C81" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D81" t="s">
         <v>100</v>
       </c>
       <c r="E81">
-        <v>7420.5</v>
+        <v>4270.8</v>
       </c>
       <c r="F81">
-        <v>0.43534</v>
+        <v>0.4634</v>
       </c>
       <c r="G81" t="s">
         <v>77</v>
@@ -13420,7 +13426,7 @@
         <v>32</v>
       </c>
       <c r="B82" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C82" t="s">
         <v>38</v>
@@ -13429,10 +13435,10 @@
         <v>100</v>
       </c>
       <c r="E82">
-        <v>4270.8</v>
+        <v>7439.8</v>
       </c>
       <c r="F82">
-        <v>0.4634</v>
+        <v>0.006748</v>
       </c>
       <c r="G82" t="s">
         <v>77</v>
@@ -13446,19 +13452,19 @@
         <v>32</v>
       </c>
       <c r="B83" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D83" t="s">
         <v>100</v>
       </c>
       <c r="E83">
-        <v>7439.8</v>
+        <v>5696.6</v>
       </c>
       <c r="F83">
-        <v>0.006748</v>
+        <v>4.6758</v>
       </c>
       <c r="G83" t="s">
         <v>77</v>
@@ -13472,7 +13478,7 @@
         <v>32</v>
       </c>
       <c r="B84" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C84" t="s">
         <v>39</v>
@@ -13481,10 +13487,10 @@
         <v>100</v>
       </c>
       <c r="E84">
-        <v>5696.6</v>
+        <v>6017.9</v>
       </c>
       <c r="F84">
-        <v>4.6758</v>
+        <v>1.1003</v>
       </c>
       <c r="G84" t="s">
         <v>77</v>
@@ -13498,19 +13504,19 @@
         <v>32</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D85" t="s">
         <v>100</v>
       </c>
       <c r="E85">
-        <v>6017.9</v>
+        <v>3388.6</v>
       </c>
       <c r="F85">
-        <v>1.1003</v>
+        <v>1031</v>
       </c>
       <c r="G85" t="s">
         <v>77</v>
@@ -13524,7 +13530,7 @@
         <v>32</v>
       </c>
       <c r="B86" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C86" t="s">
         <v>40</v>
@@ -13533,10 +13539,10 @@
         <v>100</v>
       </c>
       <c r="E86">
-        <v>3388.6</v>
+        <v>3004.9</v>
       </c>
       <c r="F86">
-        <v>1031</v>
+        <v>659.21</v>
       </c>
       <c r="G86" t="s">
         <v>77</v>
@@ -13550,19 +13556,19 @@
         <v>32</v>
       </c>
       <c r="B87" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C87" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D87" t="s">
         <v>100</v>
       </c>
       <c r="E87">
-        <v>3004.9</v>
+        <v>2246</v>
       </c>
       <c r="F87">
-        <v>659.21</v>
+        <v>0.14057</v>
       </c>
       <c r="G87" t="s">
         <v>77</v>
@@ -13576,7 +13582,7 @@
         <v>32</v>
       </c>
       <c r="B88" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C88" t="s">
         <v>45</v>
@@ -13585,10 +13591,10 @@
         <v>100</v>
       </c>
       <c r="E88">
-        <v>2246</v>
+        <v>3870.8</v>
       </c>
       <c r="F88">
-        <v>0.14057</v>
+        <v>6445.7</v>
       </c>
       <c r="G88" t="s">
         <v>77</v>
@@ -13599,22 +13605,22 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B89" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C89" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D89" t="s">
         <v>100</v>
       </c>
       <c r="E89">
-        <v>3870.8</v>
+        <v>2161</v>
       </c>
       <c r="F89">
-        <v>6445.7</v>
+        <v>54.398</v>
       </c>
       <c r="G89" t="s">
         <v>77</v>
@@ -13631,16 +13637,16 @@
         <v>101</v>
       </c>
       <c r="C90" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D90" t="s">
         <v>100</v>
       </c>
       <c r="E90">
-        <v>2161</v>
+        <v>1282.7</v>
       </c>
       <c r="F90">
-        <v>54.398</v>
+        <v>254.28</v>
       </c>
       <c r="G90" t="s">
         <v>77</v>
@@ -13654,19 +13660,19 @@
         <v>33</v>
       </c>
       <c r="B91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C91" t="s">
         <v>36</v>
       </c>
       <c r="D91" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E91">
-        <v>1282.7</v>
+        <v>1354</v>
       </c>
       <c r="F91">
-        <v>254.28</v>
+        <v>141.35</v>
       </c>
       <c r="G91" t="s">
         <v>77</v>
@@ -13683,16 +13689,16 @@
         <v>100</v>
       </c>
       <c r="C92" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D92" t="s">
         <v>101</v>
       </c>
       <c r="E92">
-        <v>1354</v>
+        <v>861.12</v>
       </c>
       <c r="F92">
-        <v>141.35</v>
+        <v>556.3200000000001</v>
       </c>
       <c r="G92" t="s">
         <v>77</v>
@@ -13706,19 +13712,19 @@
         <v>33</v>
       </c>
       <c r="B93" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C93" t="s">
         <v>37</v>
       </c>
       <c r="D93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E93">
-        <v>861.12</v>
+        <v>1477.7</v>
       </c>
       <c r="F93">
-        <v>556.3200000000001</v>
+        <v>449.81</v>
       </c>
       <c r="G93" t="s">
         <v>77</v>
@@ -13735,16 +13741,16 @@
         <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D94" t="s">
         <v>100</v>
       </c>
       <c r="E94">
-        <v>1477.7</v>
+        <v>1357.2</v>
       </c>
       <c r="F94">
-        <v>449.81</v>
+        <v>599.1900000000001</v>
       </c>
       <c r="G94" t="s">
         <v>77</v>
@@ -13755,22 +13761,22 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B95" t="s">
         <v>101</v>
       </c>
       <c r="C95" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D95" t="s">
         <v>100</v>
       </c>
       <c r="E95">
-        <v>1357.2</v>
+        <v>2097.9</v>
       </c>
       <c r="F95">
-        <v>599.1900000000001</v>
+        <v>62.309</v>
       </c>
       <c r="G95" t="s">
         <v>77</v>
@@ -13784,19 +13790,19 @@
         <v>34</v>
       </c>
       <c r="B96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96" t="s">
+        <v>35</v>
+      </c>
+      <c r="D96" t="s">
         <v>101</v>
       </c>
-      <c r="C96" t="s">
-        <v>34</v>
-      </c>
-      <c r="D96" t="s">
-        <v>100</v>
-      </c>
       <c r="E96">
-        <v>2097.9</v>
+        <v>1464.1</v>
       </c>
       <c r="F96">
-        <v>62.309</v>
+        <v>591.55</v>
       </c>
       <c r="G96" t="s">
         <v>77</v>
@@ -13810,19 +13816,19 @@
         <v>34</v>
       </c>
       <c r="B97" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s">
         <v>35</v>
       </c>
       <c r="D97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E97">
-        <v>1464.1</v>
+        <v>2500</v>
       </c>
       <c r="F97">
-        <v>591.55</v>
+        <v>10.444</v>
       </c>
       <c r="G97" t="s">
         <v>77</v>
@@ -13836,19 +13842,19 @@
         <v>34</v>
       </c>
       <c r="B98" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" t="s">
+        <v>36</v>
+      </c>
+      <c r="D98" t="s">
         <v>101</v>
       </c>
-      <c r="C98" t="s">
-        <v>35</v>
-      </c>
-      <c r="D98" t="s">
-        <v>100</v>
-      </c>
       <c r="E98">
-        <v>2500</v>
+        <v>629.88</v>
       </c>
       <c r="F98">
-        <v>10.444</v>
+        <v>346.08</v>
       </c>
       <c r="G98" t="s">
         <v>77</v>
@@ -13862,19 +13868,19 @@
         <v>34</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C99" t="s">
         <v>36</v>
       </c>
       <c r="D99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E99">
-        <v>629.88</v>
+        <v>2403.8</v>
       </c>
       <c r="F99">
-        <v>346.08</v>
+        <v>26.192</v>
       </c>
       <c r="G99" t="s">
         <v>77</v>
@@ -13888,19 +13894,19 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" t="s">
+        <v>37</v>
+      </c>
+      <c r="D100" t="s">
         <v>101</v>
       </c>
-      <c r="C100" t="s">
-        <v>36</v>
-      </c>
-      <c r="D100" t="s">
-        <v>100</v>
-      </c>
       <c r="E100">
-        <v>2403.8</v>
+        <v>341.13</v>
       </c>
       <c r="F100">
-        <v>26.192</v>
+        <v>1499.8</v>
       </c>
       <c r="G100" t="s">
         <v>77</v>
@@ -13914,19 +13920,19 @@
         <v>34</v>
       </c>
       <c r="B101" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C101" t="s">
         <v>37</v>
       </c>
       <c r="D101" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E101">
-        <v>341.13</v>
+        <v>1390.1</v>
       </c>
       <c r="F101">
-        <v>1499.8</v>
+        <v>947.9299999999999</v>
       </c>
       <c r="G101" t="s">
         <v>77</v>
@@ -13943,16 +13949,16 @@
         <v>101</v>
       </c>
       <c r="C102" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D102" t="s">
         <v>100</v>
       </c>
       <c r="E102">
-        <v>1390.1</v>
+        <v>1247.2</v>
       </c>
       <c r="F102">
-        <v>947.9299999999999</v>
+        <v>286.83</v>
       </c>
       <c r="G102" t="s">
         <v>77</v>
@@ -13966,19 +13972,19 @@
         <v>34</v>
       </c>
       <c r="B103" t="s">
+        <v>100</v>
+      </c>
+      <c r="C103" t="s">
+        <v>43</v>
+      </c>
+      <c r="D103" t="s">
         <v>101</v>
       </c>
-      <c r="C103" t="s">
-        <v>38</v>
-      </c>
-      <c r="D103" t="s">
-        <v>100</v>
-      </c>
       <c r="E103">
-        <v>1247.2</v>
+        <v>2182.7</v>
       </c>
       <c r="F103">
-        <v>286.83</v>
+        <v>402.6</v>
       </c>
       <c r="G103" t="s">
         <v>77</v>
@@ -13992,19 +13998,19 @@
         <v>34</v>
       </c>
       <c r="B104" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C104" t="s">
         <v>43</v>
       </c>
       <c r="D104" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E104">
-        <v>2182.7</v>
+        <v>250.03</v>
       </c>
       <c r="F104">
-        <v>402.6</v>
+        <v>25</v>
       </c>
       <c r="G104" t="s">
         <v>77</v>
@@ -14021,16 +14027,16 @@
         <v>101</v>
       </c>
       <c r="C105" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D105" t="s">
         <v>100</v>
       </c>
       <c r="E105">
-        <v>250.03</v>
+        <v>1247.2</v>
       </c>
       <c r="F105">
-        <v>25</v>
+        <v>286.83</v>
       </c>
       <c r="G105" t="s">
         <v>77</v>
@@ -14047,16 +14053,16 @@
         <v>101</v>
       </c>
       <c r="C106" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="D106" t="s">
         <v>100</v>
       </c>
       <c r="E106">
-        <v>1247.2</v>
+        <v>1284.9</v>
       </c>
       <c r="F106">
-        <v>286.83</v>
+        <v>2978.8</v>
       </c>
       <c r="G106" t="s">
         <v>77</v>
@@ -14076,13 +14082,13 @@
         <v>69</v>
       </c>
       <c r="D107" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E107">
-        <v>1284.9</v>
+        <v>3889.3</v>
       </c>
       <c r="F107">
-        <v>2978.8</v>
+        <v>0.43712</v>
       </c>
       <c r="G107" t="s">
         <v>77</v>
@@ -14096,19 +14102,19 @@
         <v>34</v>
       </c>
       <c r="B108" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C108" t="s">
         <v>69</v>
       </c>
       <c r="D108" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E108">
-        <v>3889.3</v>
+        <v>1284.9</v>
       </c>
       <c r="F108">
-        <v>0.43712</v>
+        <v>2978.8</v>
       </c>
       <c r="G108" t="s">
         <v>77</v>
@@ -14119,22 +14125,22 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B109" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C109" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="D109" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E109">
-        <v>1284.9</v>
+        <v>2480.6</v>
       </c>
       <c r="F109">
-        <v>2978.8</v>
+        <v>8.474</v>
       </c>
       <c r="G109" t="s">
         <v>77</v>
@@ -14151,16 +14157,16 @@
         <v>101</v>
       </c>
       <c r="C110" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="D110" t="s">
         <v>100</v>
       </c>
       <c r="E110">
-        <v>2480.6</v>
+        <v>2278.5</v>
       </c>
       <c r="F110">
-        <v>8.474</v>
+        <v>73.69799999999999</v>
       </c>
       <c r="G110" t="s">
         <v>77</v>
@@ -14180,7 +14186,7 @@
         <v>69</v>
       </c>
       <c r="D111" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E111">
         <v>2278.5</v>
@@ -14200,13 +14206,13 @@
         <v>35</v>
       </c>
       <c r="B112" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C112" t="s">
         <v>69</v>
       </c>
       <c r="D112" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E112">
         <v>2278.5</v>
@@ -14223,22 +14229,22 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B113" t="s">
         <v>100</v>
       </c>
       <c r="C113" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D113" t="s">
         <v>101</v>
       </c>
       <c r="E113">
-        <v>2278.5</v>
+        <v>1070.8</v>
       </c>
       <c r="F113">
-        <v>73.69799999999999</v>
+        <v>95.22499999999999</v>
       </c>
       <c r="G113" t="s">
         <v>77</v>
@@ -14252,19 +14258,19 @@
         <v>36</v>
       </c>
       <c r="B114" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C114" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D114" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E114">
-        <v>1070.8</v>
+        <v>1639.9</v>
       </c>
       <c r="F114">
-        <v>95.22499999999999</v>
+        <v>37.9</v>
       </c>
       <c r="G114" t="s">
         <v>77</v>
@@ -14278,19 +14284,19 @@
         <v>36</v>
       </c>
       <c r="B115" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C115" t="s">
         <v>37</v>
       </c>
       <c r="D115" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E115">
-        <v>1639.9</v>
+        <v>1682.1</v>
       </c>
       <c r="F115">
-        <v>37.9</v>
+        <v>0.582</v>
       </c>
       <c r="G115" t="s">
         <v>77</v>
@@ -14301,7 +14307,7 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B116" t="s">
         <v>100</v>
@@ -14313,10 +14319,10 @@
         <v>101</v>
       </c>
       <c r="E116">
-        <v>1682.1</v>
+        <v>1370.3</v>
       </c>
       <c r="F116">
-        <v>0.582</v>
+        <v>10.062</v>
       </c>
       <c r="G116" t="s">
         <v>77</v>
@@ -14327,22 +14333,22 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B117" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C117" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D117" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E117">
-        <v>1370.3</v>
+        <v>1511.6</v>
       </c>
       <c r="F117">
-        <v>10.062</v>
+        <v>87.651</v>
       </c>
       <c r="G117" t="s">
         <v>77</v>
@@ -14359,16 +14365,16 @@
         <v>101</v>
       </c>
       <c r="C118" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D118" t="s">
         <v>100</v>
       </c>
       <c r="E118">
-        <v>1511.6</v>
+        <v>901.35</v>
       </c>
       <c r="F118">
-        <v>87.651</v>
+        <v>1.1555</v>
       </c>
       <c r="G118" t="s">
         <v>77</v>
@@ -14379,22 +14385,22 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B119" t="s">
+        <v>100</v>
+      </c>
+      <c r="C119" t="s">
+        <v>69</v>
+      </c>
+      <c r="D119" t="s">
         <v>101</v>
       </c>
-      <c r="C119" t="s">
-        <v>40</v>
-      </c>
-      <c r="D119" t="s">
-        <v>100</v>
-      </c>
       <c r="E119">
-        <v>901.35</v>
+        <v>3961.5</v>
       </c>
       <c r="F119">
-        <v>1.1555</v>
+        <v>0.023401</v>
       </c>
       <c r="G119" t="s">
         <v>77</v>
@@ -14405,22 +14411,22 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B120" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C120" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D120" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E120">
-        <v>3961.5</v>
+        <v>1538.1</v>
       </c>
       <c r="F120">
-        <v>0.023401</v>
+        <v>275.86</v>
       </c>
       <c r="G120" t="s">
         <v>77</v>
@@ -14431,22 +14437,22 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B121" t="s">
+        <v>100</v>
+      </c>
+      <c r="C121" t="s">
+        <v>45</v>
+      </c>
+      <c r="D121" t="s">
         <v>101</v>
       </c>
-      <c r="C121" t="s">
-        <v>43</v>
-      </c>
-      <c r="D121" t="s">
-        <v>100</v>
-      </c>
       <c r="E121">
-        <v>1538.1</v>
+        <v>1293.5</v>
       </c>
       <c r="F121">
-        <v>275.86</v>
+        <v>438.49</v>
       </c>
       <c r="G121" t="s">
         <v>77</v>
@@ -14457,22 +14463,22 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B122" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C122" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D122" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E122">
-        <v>1293.5</v>
+        <v>1492</v>
       </c>
       <c r="F122">
-        <v>438.49</v>
+        <v>76.411</v>
       </c>
       <c r="G122" t="s">
         <v>77</v>
@@ -14489,16 +14495,16 @@
         <v>101</v>
       </c>
       <c r="C123" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D123" t="s">
         <v>100</v>
       </c>
       <c r="E123">
-        <v>1492</v>
+        <v>802.21</v>
       </c>
       <c r="F123">
-        <v>76.411</v>
+        <v>52.555</v>
       </c>
       <c r="G123" t="s">
         <v>77</v>
@@ -14515,16 +14521,16 @@
         <v>101</v>
       </c>
       <c r="C124" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D124" t="s">
         <v>100</v>
       </c>
       <c r="E124">
-        <v>802.21</v>
+        <v>2266</v>
       </c>
       <c r="F124">
-        <v>52.555</v>
+        <v>43.7</v>
       </c>
       <c r="G124" t="s">
         <v>77</v>
@@ -14541,16 +14547,16 @@
         <v>101</v>
       </c>
       <c r="C125" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D125" t="s">
         <v>100</v>
       </c>
       <c r="E125">
-        <v>2266</v>
+        <v>2900</v>
       </c>
       <c r="F125">
-        <v>43.7</v>
+        <v>38.401</v>
       </c>
       <c r="G125" t="s">
         <v>77</v>
@@ -14567,16 +14573,16 @@
         <v>101</v>
       </c>
       <c r="C126" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D126" t="s">
         <v>100</v>
       </c>
       <c r="E126">
-        <v>2900</v>
+        <v>1398.1</v>
       </c>
       <c r="F126">
-        <v>38.401</v>
+        <v>91.419</v>
       </c>
       <c r="G126" t="s">
         <v>77</v>
@@ -14587,22 +14593,22 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B127" t="s">
         <v>101</v>
       </c>
       <c r="C127" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D127" t="s">
         <v>100</v>
       </c>
       <c r="E127">
-        <v>1398.1</v>
+        <v>1300</v>
       </c>
       <c r="F127">
-        <v>91.419</v>
+        <v>8.9978</v>
       </c>
       <c r="G127" t="s">
         <v>77</v>
@@ -14613,22 +14619,22 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B128" t="s">
         <v>101</v>
       </c>
       <c r="C128" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D128" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E128">
-        <v>1300</v>
+        <v>4745.7</v>
       </c>
       <c r="F128">
-        <v>8.9978</v>
+        <v>10.04</v>
       </c>
       <c r="G128" t="s">
         <v>77</v>
@@ -14645,16 +14651,16 @@
         <v>101</v>
       </c>
       <c r="C129" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D129" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E129">
-        <v>4745.7</v>
+        <v>2424.1</v>
       </c>
       <c r="F129">
-        <v>10.04</v>
+        <v>990.46</v>
       </c>
       <c r="G129" t="s">
         <v>77</v>
@@ -14671,16 +14677,16 @@
         <v>101</v>
       </c>
       <c r="C130" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D130" t="s">
         <v>100</v>
       </c>
       <c r="E130">
-        <v>2424.1</v>
+        <v>2828.1</v>
       </c>
       <c r="F130">
-        <v>990.46</v>
+        <v>47.677</v>
       </c>
       <c r="G130" t="s">
         <v>77</v>
@@ -14691,28 +14697,28 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="B131" t="s">
+        <v>100</v>
+      </c>
+      <c r="C131" t="s">
+        <v>29</v>
+      </c>
+      <c r="D131" t="s">
         <v>101</v>
       </c>
-      <c r="C131" t="s">
-        <v>71</v>
-      </c>
-      <c r="D131" t="s">
-        <v>100</v>
-      </c>
       <c r="E131">
-        <v>2828.1</v>
+        <v>1799.8</v>
       </c>
       <c r="F131">
-        <v>47.677</v>
+        <v>125.45</v>
       </c>
       <c r="G131" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="H131" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -15126,7 +15132,7 @@
         <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>87</v>
@@ -15149,7 +15155,7 @@
         <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D2">
         <v>509.37</v>
@@ -15172,7 +15178,7 @@
         <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D3">
         <v>780.24</v>
@@ -15195,7 +15201,7 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D4">
         <v>358.02</v>
@@ -15218,7 +15224,7 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D5">
         <v>339.89</v>
@@ -15241,7 +15247,7 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D6">
         <v>134.58</v>
@@ -15264,7 +15270,7 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D7">
         <v>90.008</v>
@@ -15287,7 +15293,7 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D8">
         <v>1569.8</v>
@@ -15310,7 +15316,7 @@
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D9">
         <v>241.18</v>
@@ -15333,7 +15339,7 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D10">
         <v>488.28</v>
@@ -15375,7 +15381,7 @@
         <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>98</v>
@@ -15404,7 +15410,7 @@
         <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F2">
         <v>600</v>
@@ -15433,7 +15439,7 @@
         <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F3">
         <v>2000.6</v>
@@ -15462,7 +15468,7 @@
         <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F4">
         <v>1364.4</v>
@@ -15491,7 +15497,7 @@
         <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F5">
         <v>1877.5</v>
@@ -15520,7 +15526,7 @@
         <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F6">
         <v>3313</v>
@@ -15549,7 +15555,7 @@
         <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F7">
         <v>4943.6</v>
@@ -15578,7 +15584,7 @@
         <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F8">
         <v>629.88</v>
@@ -15607,7 +15613,7 @@
         <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F9">
         <v>2403.8</v>
@@ -15636,7 +15642,7 @@
         <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F10">
         <v>7020.9</v>
@@ -15665,7 +15671,7 @@
         <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F11">
         <v>2490.6</v>
@@ -15694,7 +15700,7 @@
         <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F12">
         <v>1390.1</v>
@@ -15723,7 +15729,7 @@
         <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F13">
         <v>341.13</v>
@@ -15752,7 +15758,7 @@
         <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F14">
         <v>2876.5</v>
@@ -15781,7 +15787,7 @@
         <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F15">
         <v>5500.7</v>
@@ -15810,7 +15816,7 @@
         <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F16">
         <v>3437.4</v>
@@ -15839,7 +15845,7 @@
         <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F17">
         <v>1210.9</v>
@@ -15868,7 +15874,7 @@
         <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F18">
         <v>305.8</v>
@@ -15897,7 +15903,7 @@
         <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F19">
         <v>1756.2</v>

--- a/sgtpy/database/saftgamma_database.xlsx
+++ b/sgtpy/database/saftgamma_database.xlsx
@@ -3702,13 +3702,13 @@
         <v>6</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60">
         <v>0</v>
